--- a/processed_data/stations_info.xlsx
+++ b/processed_data/stations_info.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\load_pred\processed_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3436,12 +3441,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3449,8 +3454,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3496,15 +3508,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3546,7 +3566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3578,9 +3598,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3612,6 +3633,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3787,14 +3809,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3829,7 +3858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>3219</v>
       </c>
@@ -3852,7 +3881,7 @@
         <v>117.2799987792969</v>
       </c>
       <c r="H2">
-        <v>31.81399917602539</v>
+        <v>31.813999176025391</v>
       </c>
       <c r="I2" t="s">
         <v>1116</v>
@@ -3867,7 +3896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>3222</v>
       </c>
@@ -3887,7 +3916,7 @@
         <v>678</v>
       </c>
       <c r="G3">
-        <v>117.3639984130859</v>
+        <v>117.36399841308589</v>
       </c>
       <c r="H3">
         <v>31.79899978637695</v>
@@ -3905,7 +3934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3285</v>
       </c>
@@ -3925,10 +3954,10 @@
         <v>679</v>
       </c>
       <c r="G4">
-        <v>117.3030014038086</v>
+        <v>117.30300140380859</v>
       </c>
       <c r="H4">
-        <v>31.79400062561035</v>
+        <v>31.794000625610352</v>
       </c>
       <c r="I4" t="s">
         <v>1116</v>
@@ -3943,7 +3972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>924</v>
       </c>
@@ -3966,7 +3995,7 @@
         <v>117.2764434814453</v>
       </c>
       <c r="H5">
-        <v>31.81332778930664</v>
+        <v>31.813327789306641</v>
       </c>
       <c r="I5" t="s">
         <v>1116</v>
@@ -3981,7 +4010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5239</v>
       </c>
@@ -4004,7 +4033,7 @@
         <v>117.2475280761719</v>
       </c>
       <c r="H6">
-        <v>31.73322486877441</v>
+        <v>31.733224868774411</v>
       </c>
       <c r="I6" t="s">
         <v>1116</v>
@@ -4019,7 +4048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3265</v>
       </c>
@@ -4057,7 +4086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3340</v>
       </c>
@@ -4095,7 +4124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2789</v>
       </c>
@@ -4118,7 +4147,7 @@
         <v>117.274169921875</v>
       </c>
       <c r="H9">
-        <v>31.92916679382324</v>
+        <v>31.929166793823239</v>
       </c>
       <c r="I9" t="s">
         <v>1116</v>
@@ -4133,7 +4162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>3255</v>
       </c>
@@ -4156,7 +4185,7 @@
         <v>117.1630020141602</v>
       </c>
       <c r="H10">
-        <v>31.80900001525879</v>
+        <v>31.809000015258789</v>
       </c>
       <c r="I10" t="s">
         <v>1116</v>
@@ -4171,7 +4200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>3315</v>
       </c>
@@ -4191,10 +4220,10 @@
         <v>686</v>
       </c>
       <c r="G11">
-        <v>117.1880035400391</v>
+        <v>117.18800354003911</v>
       </c>
       <c r="H11">
-        <v>31.83300018310547</v>
+        <v>31.833000183105469</v>
       </c>
       <c r="I11" t="s">
         <v>1116</v>
@@ -4209,7 +4238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3347</v>
       </c>
@@ -4232,7 +4261,7 @@
         <v>117.2320022583008</v>
       </c>
       <c r="H12">
-        <v>31.86499977111816</v>
+        <v>31.864999771118161</v>
       </c>
       <c r="I12" t="s">
         <v>1116</v>
@@ -4247,7 +4276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -4270,7 +4299,7 @@
         <v>117.245002746582</v>
       </c>
       <c r="H13">
-        <v>31.82699966430664</v>
+        <v>31.826999664306641</v>
       </c>
       <c r="I13" t="s">
         <v>1116</v>
@@ -4285,7 +4314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>127</v>
       </c>
@@ -4305,10 +4334,10 @@
         <v>689</v>
       </c>
       <c r="G14">
-        <v>117.3239974975586</v>
+        <v>117.32399749755859</v>
       </c>
       <c r="H14">
-        <v>31.85499954223633</v>
+        <v>31.854999542236332</v>
       </c>
       <c r="I14" t="s">
         <v>1116</v>
@@ -4323,7 +4352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>45</v>
       </c>
@@ -4346,7 +4375,7 @@
         <v>117.3539962768555</v>
       </c>
       <c r="H15">
-        <v>31.85799980163575</v>
+        <v>31.857999801635749</v>
       </c>
       <c r="I15" t="s">
         <v>1116</v>
@@ -4361,7 +4390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>3362</v>
       </c>
@@ -4381,7 +4410,7 @@
         <v>691</v>
       </c>
       <c r="G16">
-        <v>117.3119964599609</v>
+        <v>117.31199645996089</v>
       </c>
       <c r="H16">
         <v>31.85000038146973</v>
@@ -4399,7 +4428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>453</v>
       </c>
@@ -4422,7 +4451,7 @@
         <v>117.2272415161133</v>
       </c>
       <c r="H17">
-        <v>31.82058715820312</v>
+        <v>31.820587158203121</v>
       </c>
       <c r="I17" t="s">
         <v>1116</v>
@@ -4437,7 +4466,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3751</v>
       </c>
@@ -4460,7 +4489,7 @@
         <v>117.129997253418</v>
       </c>
       <c r="H18">
-        <v>31.85899925231934</v>
+        <v>31.858999252319339</v>
       </c>
       <c r="I18" t="s">
         <v>1116</v>
@@ -4475,7 +4504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3275</v>
       </c>
@@ -4495,10 +4524,10 @@
         <v>694</v>
       </c>
       <c r="G19">
-        <v>117.2249984741211</v>
+        <v>117.22499847412109</v>
       </c>
       <c r="H19">
-        <v>31.7810001373291</v>
+        <v>31.781000137329102</v>
       </c>
       <c r="I19" t="s">
         <v>1116</v>
@@ -4513,7 +4542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3305</v>
       </c>
@@ -4533,7 +4562,7 @@
         <v>695</v>
       </c>
       <c r="G20">
-        <v>117.2249984741211</v>
+        <v>117.22499847412109</v>
       </c>
       <c r="H20">
         <v>31.77400016784668</v>
@@ -4551,7 +4580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>3765</v>
       </c>
@@ -4571,10 +4600,10 @@
         <v>696</v>
       </c>
       <c r="G21">
-        <v>116.9729995727539</v>
+        <v>116.97299957275391</v>
       </c>
       <c r="H21">
-        <v>31.98500061035156</v>
+        <v>31.985000610351559</v>
       </c>
       <c r="I21" t="s">
         <v>1116</v>
@@ -4589,7 +4618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>418</v>
       </c>
@@ -4627,7 +4656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>2031</v>
       </c>
@@ -4647,7 +4676,7 @@
         <v>698</v>
       </c>
       <c r="G23">
-        <v>117.2269058227539</v>
+        <v>117.22690582275391</v>
       </c>
       <c r="H23">
         <v>31.82308387756348</v>
@@ -4665,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>654</v>
       </c>
@@ -4688,7 +4717,7 @@
         <v>116.4393005371094</v>
       </c>
       <c r="H24">
-        <v>39.9340705871582</v>
+        <v>39.934070587158203</v>
       </c>
       <c r="I24" t="s">
         <v>1117</v>
@@ -4703,7 +4732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>3721</v>
       </c>
@@ -4741,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>978</v>
       </c>
@@ -4764,7 +4793,7 @@
         <v>116.4321975708008</v>
       </c>
       <c r="H26">
-        <v>39.95912933349609</v>
+        <v>39.959129333496087</v>
       </c>
       <c r="I26" t="s">
         <v>1117</v>
@@ -4779,7 +4808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>1080</v>
       </c>
@@ -4799,10 +4828,10 @@
         <v>702</v>
       </c>
       <c r="G27">
-        <v>116.4198989868164</v>
+        <v>116.41989898681641</v>
       </c>
       <c r="H27">
-        <v>39.92153930664063</v>
+        <v>39.921539306640632</v>
       </c>
       <c r="I27" t="s">
         <v>1117</v>
@@ -4817,7 +4846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>4280</v>
       </c>
@@ -4840,7 +4869,7 @@
         <v>116.4183807373047</v>
       </c>
       <c r="H28">
-        <v>39.92304992675781</v>
+        <v>39.923049926757812</v>
       </c>
       <c r="I28" t="s">
         <v>1117</v>
@@ -4855,7 +4884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>4835</v>
       </c>
@@ -4875,10 +4904,10 @@
         <v>704</v>
       </c>
       <c r="G29">
-        <v>116.4310073852539</v>
+        <v>116.43100738525391</v>
       </c>
       <c r="H29">
-        <v>39.90914154052734</v>
+        <v>39.909141540527337</v>
       </c>
       <c r="I29" t="s">
         <v>1117</v>
@@ -4893,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>5102</v>
       </c>
@@ -4916,7 +4945,7 @@
         <v>116.4318161010742</v>
       </c>
       <c r="H30">
-        <v>39.94020080566406</v>
+        <v>39.940200805664063</v>
       </c>
       <c r="I30" t="s">
         <v>1117</v>
@@ -4931,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>4337</v>
       </c>
@@ -4954,7 +4983,7 @@
         <v>116.3737716674805</v>
       </c>
       <c r="H31">
-        <v>39.91708374023438</v>
+        <v>39.917083740234382</v>
       </c>
       <c r="I31" t="s">
         <v>1117</v>
@@ -4969,7 +4998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>4420</v>
       </c>
@@ -4989,10 +5018,10 @@
         <v>707</v>
       </c>
       <c r="G32">
-        <v>116.3436126708984</v>
+        <v>116.34361267089839</v>
       </c>
       <c r="H32">
-        <v>39.92256164550781</v>
+        <v>39.922561645507813</v>
       </c>
       <c r="I32" t="s">
         <v>1117</v>
@@ -5007,7 +5036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>583</v>
       </c>
@@ -5027,10 +5056,10 @@
         <v>708</v>
       </c>
       <c r="G33">
-        <v>116.3110961914062</v>
+        <v>116.31109619140619</v>
       </c>
       <c r="H33">
-        <v>39.9836311340332</v>
+        <v>39.983631134033203</v>
       </c>
       <c r="I33" t="s">
         <v>1117</v>
@@ -5045,7 +5074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>93</v>
       </c>
@@ -5083,7 +5112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>87</v>
       </c>
@@ -5106,7 +5135,7 @@
         <v>116.3489990234375</v>
       </c>
       <c r="H35">
-        <v>39.95199966430664</v>
+        <v>39.951999664306641</v>
       </c>
       <c r="I35" t="s">
         <v>1117</v>
@@ -5121,7 +5150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>595</v>
       </c>
@@ -5159,7 +5188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>698</v>
       </c>
@@ -5179,10 +5208,10 @@
         <v>712</v>
       </c>
       <c r="G37">
-        <v>116.2853012084961</v>
+        <v>116.28530120849609</v>
       </c>
       <c r="H37">
-        <v>39.90542984008789</v>
+        <v>39.905429840087891</v>
       </c>
       <c r="I37" t="s">
         <v>1117</v>
@@ -5197,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>709</v>
       </c>
@@ -5220,7 +5249,7 @@
         <v>116.2828063964844</v>
       </c>
       <c r="H38">
-        <v>39.93815231323242</v>
+        <v>39.938152313232422</v>
       </c>
       <c r="I38" t="s">
         <v>1117</v>
@@ -5235,7 +5264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>775</v>
       </c>
@@ -5255,10 +5284,10 @@
         <v>714</v>
       </c>
       <c r="G39">
-        <v>116.3337631225586</v>
+        <v>116.33376312255859</v>
       </c>
       <c r="H39">
-        <v>39.99428176879883</v>
+        <v>39.994281768798828</v>
       </c>
       <c r="I39" t="s">
         <v>1117</v>
@@ -5273,7 +5302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>729</v>
       </c>
@@ -5296,7 +5325,7 @@
         <v>116.356819152832</v>
       </c>
       <c r="H40">
-        <v>40.04452133178711</v>
+        <v>40.044521331787109</v>
       </c>
       <c r="I40" t="s">
         <v>1117</v>
@@ -5311,7 +5340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>877</v>
       </c>
@@ -5334,7 +5363,7 @@
         <v>116.31829834</v>
       </c>
       <c r="H41">
-        <v>40.04763031</v>
+        <v>40.047630310000002</v>
       </c>
       <c r="I41" t="s">
         <v>1117</v>
@@ -5349,7 +5378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>993</v>
       </c>
@@ -5372,7 +5401,7 @@
         <v>116.2490997314453</v>
       </c>
       <c r="H42">
-        <v>40.08650588989258</v>
+        <v>40.086505889892578</v>
       </c>
       <c r="I42" t="s">
         <v>1117</v>
@@ -5387,7 +5416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>997</v>
       </c>
@@ -5407,10 +5436,10 @@
         <v>718</v>
       </c>
       <c r="G43">
-        <v>116.2580795288086</v>
+        <v>116.25807952880859</v>
       </c>
       <c r="H43">
-        <v>40.09011459350586</v>
+        <v>40.090114593505859</v>
       </c>
       <c r="I43" t="s">
         <v>1117</v>
@@ -5425,7 +5454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>1092</v>
       </c>
@@ -5448,7 +5477,7 @@
         <v>116.2806701660156</v>
       </c>
       <c r="H44">
-        <v>39.96280670166016</v>
+        <v>39.962806701660163</v>
       </c>
       <c r="I44" t="s">
         <v>1117</v>
@@ -5463,7 +5492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>1184</v>
       </c>
@@ -5486,7 +5515,7 @@
         <v>116.3804626464844</v>
       </c>
       <c r="H45">
-        <v>39.97794342041016</v>
+        <v>39.977943420410163</v>
       </c>
       <c r="I45" t="s">
         <v>1117</v>
@@ -5501,7 +5530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>1441</v>
       </c>
@@ -5521,10 +5550,10 @@
         <v>721</v>
       </c>
       <c r="G46">
-        <v>116.3578872680664</v>
+        <v>116.35788726806641</v>
       </c>
       <c r="H46">
-        <v>40.02547073364258</v>
+        <v>40.025470733642578</v>
       </c>
       <c r="I46" t="s">
         <v>1117</v>
@@ -5539,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>1550</v>
       </c>
@@ -5562,7 +5591,7 @@
         <v>116.254280090332</v>
       </c>
       <c r="H47">
-        <v>39.91819381713867</v>
+        <v>39.918193817138672</v>
       </c>
       <c r="I47" t="s">
         <v>1117</v>
@@ -5577,7 +5606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>2142</v>
       </c>
@@ -5600,7 +5629,7 @@
         <v>116.3358612060547</v>
       </c>
       <c r="H48">
-        <v>40.05537414550781</v>
+        <v>40.055374145507812</v>
       </c>
       <c r="I48" t="s">
         <v>1117</v>
@@ -5615,7 +5644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>2116</v>
       </c>
@@ -5653,7 +5682,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>2161</v>
       </c>
@@ -5673,10 +5702,10 @@
         <v>725</v>
       </c>
       <c r="G50">
-        <v>116.34728241</v>
+        <v>116.34728241000001</v>
       </c>
       <c r="H50">
-        <v>39.98923492</v>
+        <v>39.989234920000001</v>
       </c>
       <c r="I50" t="s">
         <v>1117</v>
@@ -5691,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>2163</v>
       </c>
@@ -5714,7 +5743,7 @@
         <v>116.3406600952148</v>
       </c>
       <c r="H51">
-        <v>39.90370941162109</v>
+        <v>39.903709411621087</v>
       </c>
       <c r="I51" t="s">
         <v>1117</v>
@@ -5729,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>3032</v>
       </c>
@@ -5752,7 +5781,7 @@
         <v>116.3360137939453</v>
       </c>
       <c r="H52">
-        <v>39.94538497924805</v>
+        <v>39.945384979248047</v>
       </c>
       <c r="I52" t="s">
         <v>1117</v>
@@ -5767,7 +5796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>3061</v>
       </c>
@@ -5790,7 +5819,7 @@
         <v>116.3048095703125</v>
       </c>
       <c r="H53">
-        <v>39.96604919433594</v>
+        <v>39.966049194335938</v>
       </c>
       <c r="I53" t="s">
         <v>1117</v>
@@ -5805,7 +5834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>3207</v>
       </c>
@@ -5825,10 +5854,10 @@
         <v>729</v>
       </c>
       <c r="G54">
-        <v>116.2973861694336</v>
+        <v>116.29738616943359</v>
       </c>
       <c r="H54">
-        <v>40.04862213134766</v>
+        <v>40.048622131347663</v>
       </c>
       <c r="I54" t="s">
         <v>1117</v>
@@ -5843,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>3823</v>
       </c>
@@ -5866,7 +5895,7 @@
         <v>116.3329238891602</v>
       </c>
       <c r="H55">
-        <v>39.96361541748047</v>
+        <v>39.963615417480469</v>
       </c>
       <c r="I55" t="s">
         <v>1117</v>
@@ -5881,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>3966</v>
       </c>
@@ -5904,7 +5933,7 @@
         <v>116.3543395996094</v>
       </c>
       <c r="H56">
-        <v>40.00683212280273</v>
+        <v>40.006832122802727</v>
       </c>
       <c r="I56" t="s">
         <v>1117</v>
@@ -5919,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>3881</v>
       </c>
@@ -5942,7 +5971,7 @@
         <v>116.3336715698242</v>
       </c>
       <c r="H57">
-        <v>39.98782348632813</v>
+        <v>39.987823486328132</v>
       </c>
       <c r="I57" t="s">
         <v>1117</v>
@@ -5957,7 +5986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>3905</v>
       </c>
@@ -5980,7 +6009,7 @@
         <v>116.3000946044922</v>
       </c>
       <c r="H58">
-        <v>39.93138885498047</v>
+        <v>39.931388854980469</v>
       </c>
       <c r="I58" t="s">
         <v>1117</v>
@@ -5995,7 +6024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>3940</v>
       </c>
@@ -6015,10 +6044,10 @@
         <v>734</v>
       </c>
       <c r="G59">
-        <v>116.2805328369141</v>
+        <v>116.28053283691411</v>
       </c>
       <c r="H59">
-        <v>39.96460723876953</v>
+        <v>39.964607238769531</v>
       </c>
       <c r="I59" t="s">
         <v>1117</v>
@@ -6033,7 +6062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>4153</v>
       </c>
@@ -6056,7 +6085,7 @@
         <v>116.3186721801758</v>
       </c>
       <c r="H60">
-        <v>39.94693374633789</v>
+        <v>39.946933746337891</v>
       </c>
       <c r="I60" t="s">
         <v>1117</v>
@@ -6071,7 +6100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>4254</v>
       </c>
@@ -6109,7 +6138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>4429</v>
       </c>
@@ -6129,10 +6158,10 @@
         <v>737</v>
       </c>
       <c r="G62">
-        <v>116.2795181274414</v>
+        <v>116.27951812744141</v>
       </c>
       <c r="H62">
-        <v>39.95986557006836</v>
+        <v>39.959865570068359</v>
       </c>
       <c r="I62" t="s">
         <v>1117</v>
@@ -6147,7 +6176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>4372</v>
       </c>
@@ -6170,7 +6199,7 @@
         <v>116.2837600708008</v>
       </c>
       <c r="H63">
-        <v>39.90328598022461</v>
+        <v>39.903285980224609</v>
       </c>
       <c r="I63" t="s">
         <v>1117</v>
@@ -6185,7 +6214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>4484</v>
       </c>
@@ -6208,7 +6237,7 @@
         <v>116.3547058105469</v>
       </c>
       <c r="H64">
-        <v>39.97168350219727</v>
+        <v>39.971683502197273</v>
       </c>
       <c r="I64" t="s">
         <v>1117</v>
@@ -6223,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>4545</v>
       </c>
@@ -6243,10 +6272,10 @@
         <v>740</v>
       </c>
       <c r="G65">
-        <v>116.3524780273438</v>
+        <v>116.35247802734381</v>
       </c>
       <c r="H65">
-        <v>39.99424743652344</v>
+        <v>39.994247436523438</v>
       </c>
       <c r="I65" t="s">
         <v>1117</v>
@@ -6261,7 +6290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>4661</v>
       </c>
@@ -6284,7 +6313,7 @@
         <v>116.356819152832</v>
       </c>
       <c r="H66">
-        <v>40.04452133178711</v>
+        <v>40.044521331787109</v>
       </c>
       <c r="I66" t="s">
         <v>1117</v>
@@ -6299,7 +6328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>4686</v>
       </c>
@@ -6322,7 +6351,7 @@
         <v>116.2924499511719</v>
       </c>
       <c r="H67">
-        <v>39.91820907592773</v>
+        <v>39.918209075927727</v>
       </c>
       <c r="I67" t="s">
         <v>1117</v>
@@ -6337,7 +6366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>4810</v>
       </c>
@@ -6360,7 +6389,7 @@
         <v>116.347053527832</v>
       </c>
       <c r="H68">
-        <v>39.98747634887695</v>
+        <v>39.987476348876953</v>
       </c>
       <c r="I68" t="s">
         <v>1117</v>
@@ -6375,7 +6404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>4827</v>
       </c>
@@ -6398,7 +6427,7 @@
         <v>116.3549346923828</v>
       </c>
       <c r="H69">
-        <v>39.98810958862305</v>
+        <v>39.988109588623047</v>
       </c>
       <c r="I69" t="s">
         <v>1117</v>
@@ -6413,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>4874</v>
       </c>
@@ -6436,7 +6465,7 @@
         <v>116.2534942626953</v>
       </c>
       <c r="H70">
-        <v>40.08920288085938</v>
+        <v>40.089202880859382</v>
       </c>
       <c r="I70" t="s">
         <v>1117</v>
@@ -6451,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>5092</v>
       </c>
@@ -6474,7 +6503,7 @@
         <v>116.3297805786133</v>
       </c>
       <c r="H71">
-        <v>39.96886444091797</v>
+        <v>39.968864440917969</v>
       </c>
       <c r="I71" t="s">
         <v>1117</v>
@@ -6489,7 +6518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>5180</v>
       </c>
@@ -6512,7 +6541,7 @@
         <v>116.1800994873047</v>
       </c>
       <c r="H72">
-        <v>40.06162643432617</v>
+        <v>40.061626434326172</v>
       </c>
       <c r="I72" t="s">
         <v>1117</v>
@@ -6527,7 +6556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>5244</v>
       </c>
@@ -6547,10 +6576,10 @@
         <v>748</v>
       </c>
       <c r="G73">
-        <v>116.3046722412109</v>
+        <v>116.30467224121089</v>
       </c>
       <c r="H73">
-        <v>39.90904998779297</v>
+        <v>39.909049987792969</v>
       </c>
       <c r="I73" t="s">
         <v>1117</v>
@@ -6565,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>5729</v>
       </c>
@@ -6588,7 +6617,7 @@
         <v>116.3010330200195</v>
       </c>
       <c r="H74">
-        <v>40.05093002319336</v>
+        <v>40.050930023193359</v>
       </c>
       <c r="I74" t="s">
         <v>1117</v>
@@ -6603,7 +6632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>5784</v>
       </c>
@@ -6626,7 +6655,7 @@
         <v>116.3010330200195</v>
       </c>
       <c r="H75">
-        <v>40.05093002319336</v>
+        <v>40.050930023193359</v>
       </c>
       <c r="I75" t="s">
         <v>1117</v>
@@ -6641,7 +6670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>5788</v>
       </c>
@@ -6664,7 +6693,7 @@
         <v>116.3010330200195</v>
       </c>
       <c r="H76">
-        <v>40.05093002319336</v>
+        <v>40.050930023193359</v>
       </c>
       <c r="I76" t="s">
         <v>1117</v>
@@ -6679,7 +6708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>5912</v>
       </c>
@@ -6699,10 +6728,10 @@
         <v>752</v>
       </c>
       <c r="G77">
-        <v>116.35559</v>
+        <v>116.35559000000001</v>
       </c>
       <c r="H77">
-        <v>39.99807</v>
+        <v>39.998069999999998</v>
       </c>
       <c r="I77" t="s">
         <v>1117</v>
@@ -6717,7 +6746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>540</v>
       </c>
@@ -6755,7 +6784,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>591</v>
       </c>
@@ -6775,10 +6804,10 @@
         <v>754</v>
       </c>
       <c r="G79">
-        <v>116.4120025634766</v>
+        <v>116.41200256347661</v>
       </c>
       <c r="H79">
-        <v>40.04299926757813</v>
+        <v>40.042999267578132</v>
       </c>
       <c r="I79" t="s">
         <v>1117</v>
@@ -6793,7 +6822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>609</v>
       </c>
@@ -6816,7 +6845,7 @@
         <v>116.4710006713867</v>
       </c>
       <c r="H80">
-        <v>39.98500061035156</v>
+        <v>39.985000610351562</v>
       </c>
       <c r="I80" t="s">
         <v>1117</v>
@@ -6831,7 +6860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>614</v>
       </c>
@@ -6854,7 +6883,7 @@
         <v>116.4700012207031</v>
       </c>
       <c r="H81">
-        <v>39.98400115966797</v>
+        <v>39.984001159667969</v>
       </c>
       <c r="I81" t="s">
         <v>1117</v>
@@ -6869,7 +6898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>676</v>
       </c>
@@ -6892,7 +6921,7 @@
         <v>116.4947967529297</v>
       </c>
       <c r="H82">
-        <v>39.87026977539063</v>
+        <v>39.870269775390632</v>
       </c>
       <c r="I82" t="s">
         <v>1117</v>
@@ -6907,7 +6936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>696</v>
       </c>
@@ -6930,7 +6959,7 @@
         <v>116.4689025878906</v>
       </c>
       <c r="H83">
-        <v>39.95848083496094</v>
+        <v>39.958480834960937</v>
       </c>
       <c r="I83" t="s">
         <v>1117</v>
@@ -6945,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>764</v>
       </c>
@@ -6968,7 +6997,7 @@
         <v>116.4727096557617</v>
       </c>
       <c r="H84">
-        <v>39.99200820922852</v>
+        <v>39.992008209228523</v>
       </c>
       <c r="I84" t="s">
         <v>1117</v>
@@ -6983,7 +7012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>812</v>
       </c>
@@ -7006,7 +7035,7 @@
         <v>116.4511032104492</v>
       </c>
       <c r="H85">
-        <v>39.92972183227539</v>
+        <v>39.929721832275391</v>
       </c>
       <c r="I85" t="s">
         <v>1117</v>
@@ -7021,7 +7050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>899</v>
       </c>
@@ -7041,10 +7070,10 @@
         <v>761</v>
       </c>
       <c r="G86">
-        <v>116.4238510131836</v>
+        <v>116.42385101318359</v>
       </c>
       <c r="H86">
-        <v>40.05149841308594</v>
+        <v>40.051498413085938</v>
       </c>
       <c r="I86" t="s">
         <v>1117</v>
@@ -7059,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>941</v>
       </c>
@@ -7082,7 +7111,7 @@
         <v>116.4833984375</v>
       </c>
       <c r="H87">
-        <v>39.92005920410156</v>
+        <v>39.920059204101563</v>
       </c>
       <c r="I87" t="s">
         <v>1117</v>
@@ -7097,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>958</v>
       </c>
@@ -7120,7 +7149,7 @@
         <v>116.480827331543</v>
       </c>
       <c r="H88">
-        <v>39.91463470458984</v>
+        <v>39.914634704589837</v>
       </c>
       <c r="I88" t="s">
         <v>1117</v>
@@ -7135,7 +7164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>983</v>
       </c>
@@ -7155,10 +7184,10 @@
         <v>764</v>
       </c>
       <c r="G89">
-        <v>116.6037826538086</v>
+        <v>116.60378265380859</v>
       </c>
       <c r="H89">
-        <v>39.93100738525391</v>
+        <v>39.931007385253913</v>
       </c>
       <c r="I89" t="s">
         <v>1117</v>
@@ -7173,7 +7202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>1057</v>
       </c>
@@ -7196,7 +7225,7 @@
         <v>116.4343338012695</v>
       </c>
       <c r="H90">
-        <v>39.96800231933594</v>
+        <v>39.968002319335938</v>
       </c>
       <c r="I90" t="s">
         <v>1117</v>
@@ -7211,7 +7240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>1194</v>
       </c>
@@ -7234,7 +7263,7 @@
         <v>116.4427490234375</v>
       </c>
       <c r="H91">
-        <v>39.97670364379883</v>
+        <v>39.976703643798828</v>
       </c>
       <c r="I91" t="s">
         <v>1117</v>
@@ -7249,7 +7278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>1427</v>
       </c>
@@ -7272,7 +7301,7 @@
         <v>116.467170715332</v>
       </c>
       <c r="H92">
-        <v>39.93398284912109</v>
+        <v>39.933982849121087</v>
       </c>
       <c r="I92" t="s">
         <v>1117</v>
@@ -7287,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>1443</v>
       </c>
@@ -7307,10 +7336,10 @@
         <v>768</v>
       </c>
       <c r="G93">
-        <v>116.3578872680664</v>
+        <v>116.35788726806641</v>
       </c>
       <c r="H93">
-        <v>40.02547073364258</v>
+        <v>40.025470733642578</v>
       </c>
       <c r="I93" t="s">
         <v>1117</v>
@@ -7325,7 +7354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>1470</v>
       </c>
@@ -7345,10 +7374,10 @@
         <v>769</v>
       </c>
       <c r="G94">
-        <v>116.5169448852539</v>
+        <v>116.51694488525391</v>
       </c>
       <c r="H94">
-        <v>39.91042327880859</v>
+        <v>39.910423278808587</v>
       </c>
       <c r="I94" t="s">
         <v>1117</v>
@@ -7363,7 +7392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>1956</v>
       </c>
@@ -7386,7 +7415,7 @@
         <v>116.6182022094727</v>
       </c>
       <c r="H95">
-        <v>40.11410140991211</v>
+        <v>40.114101409912109</v>
       </c>
       <c r="I95" t="s">
         <v>1118</v>
@@ -7401,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>2153</v>
       </c>
@@ -7421,10 +7450,10 @@
         <v>771</v>
       </c>
       <c r="G96">
-        <v>116.4966812133789</v>
+        <v>116.49668121337891</v>
       </c>
       <c r="H96">
-        <v>39.89962768554688</v>
+        <v>39.899627685546882</v>
       </c>
       <c r="I96" t="s">
         <v>1117</v>
@@ -7439,7 +7468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>2735</v>
       </c>
@@ -7459,10 +7488,10 @@
         <v>772</v>
       </c>
       <c r="G97">
-        <v>116.4518432617188</v>
+        <v>116.45184326171881</v>
       </c>
       <c r="H97">
-        <v>39.94892501831055</v>
+        <v>39.948925018310547</v>
       </c>
       <c r="I97" t="s">
         <v>1117</v>
@@ -7477,7 +7506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>2890</v>
       </c>
@@ -7497,10 +7526,10 @@
         <v>773</v>
       </c>
       <c r="G98">
-        <v>116.4795989990234</v>
+        <v>116.47959899902339</v>
       </c>
       <c r="H98">
-        <v>39.99079895019531</v>
+        <v>39.990798950195313</v>
       </c>
       <c r="I98" t="s">
         <v>1117</v>
@@ -7515,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>3040</v>
       </c>
@@ -7553,7 +7582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>3871</v>
       </c>
@@ -7576,7 +7605,7 @@
         <v>116.5060577392578</v>
       </c>
       <c r="H100">
-        <v>39.9531478881836</v>
+        <v>39.953147888183601</v>
       </c>
       <c r="I100" t="s">
         <v>1117</v>
@@ -7591,7 +7620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>4208</v>
       </c>
@@ -7611,10 +7640,10 @@
         <v>776</v>
       </c>
       <c r="G101">
-        <v>116.4203109741211</v>
+        <v>116.42031097412109</v>
       </c>
       <c r="H101">
-        <v>39.98861312866211</v>
+        <v>39.988613128662109</v>
       </c>
       <c r="I101" t="s">
         <v>1117</v>
@@ -7629,7 +7658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>4230</v>
       </c>
@@ -7649,10 +7678,10 @@
         <v>777</v>
       </c>
       <c r="G102">
-        <v>116.4131469726562</v>
+        <v>116.41314697265619</v>
       </c>
       <c r="H102">
-        <v>39.99985122680664</v>
+        <v>39.999851226806641</v>
       </c>
       <c r="I102" t="s">
         <v>1117</v>
@@ -7667,7 +7696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>4252</v>
       </c>
@@ -7705,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>4264</v>
       </c>
@@ -7728,7 +7757,7 @@
         <v>116.4553298950195</v>
       </c>
       <c r="H104">
-        <v>40.02717971801758</v>
+        <v>40.027179718017578</v>
       </c>
       <c r="I104" t="s">
         <v>1117</v>
@@ -7743,7 +7772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>4494</v>
       </c>
@@ -7763,7 +7792,7 @@
         <v>780</v>
       </c>
       <c r="G105">
-        <v>116.4737396240234</v>
+        <v>116.47373962402339</v>
       </c>
       <c r="H105">
         <v>39.93414306640625</v>
@@ -7781,7 +7810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>4681</v>
       </c>
@@ -7804,7 +7833,7 @@
         <v>116.4781875610352</v>
       </c>
       <c r="H106">
-        <v>39.91422271728516</v>
+        <v>39.914222717285163</v>
       </c>
       <c r="I106" t="s">
         <v>1117</v>
@@ -7819,7 +7848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>4708</v>
       </c>
@@ -7839,10 +7868,10 @@
         <v>782</v>
       </c>
       <c r="G107">
-        <v>116.4943237304688</v>
+        <v>116.49432373046881</v>
       </c>
       <c r="H107">
-        <v>39.93472290039063</v>
+        <v>39.934722900390632</v>
       </c>
       <c r="I107" t="s">
         <v>1117</v>
@@ -7857,7 +7886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>4048</v>
       </c>
@@ -7880,7 +7909,7 @@
         <v>116.4607009887695</v>
       </c>
       <c r="H108">
-        <v>39.95650100708008</v>
+        <v>39.956501007080078</v>
       </c>
       <c r="I108" t="s">
         <v>1117</v>
@@ -7895,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>1062</v>
       </c>
@@ -7918,7 +7947,7 @@
         <v>116.465202331543</v>
       </c>
       <c r="H109">
-        <v>39.96220016479492</v>
+        <v>39.962200164794922</v>
       </c>
       <c r="I109" t="s">
         <v>1117</v>
@@ -7933,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>4913</v>
       </c>
@@ -7956,7 +7985,7 @@
         <v>116.529655456543</v>
       </c>
       <c r="H110">
-        <v>39.93661499023438</v>
+        <v>39.936614990234382</v>
       </c>
       <c r="I110" t="s">
         <v>1117</v>
@@ -7971,7 +8000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>4910</v>
       </c>
@@ -7991,10 +8020,10 @@
         <v>786</v>
       </c>
       <c r="G111">
-        <v>116.5667953491211</v>
+        <v>116.56679534912109</v>
       </c>
       <c r="H111">
-        <v>39.90597534179688</v>
+        <v>39.905975341796882</v>
       </c>
       <c r="I111" t="s">
         <v>1117</v>
@@ -8009,7 +8038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>4881</v>
       </c>
@@ -8029,10 +8058,10 @@
         <v>787</v>
       </c>
       <c r="G112">
-        <v>116.4933853149414</v>
+        <v>116.49338531494141</v>
       </c>
       <c r="H112">
-        <v>39.91624450683594</v>
+        <v>39.916244506835938</v>
       </c>
       <c r="I112" t="s">
         <v>1117</v>
@@ -8047,7 +8076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>4903</v>
       </c>
@@ -8070,7 +8099,7 @@
         <v>116.5995407104492</v>
       </c>
       <c r="H113">
-        <v>39.90217971801758</v>
+        <v>39.902179718017578</v>
       </c>
       <c r="I113" t="s">
         <v>1117</v>
@@ -8085,7 +8114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>4849</v>
       </c>
@@ -8108,7 +8137,7 @@
         <v>116.4670715332031</v>
       </c>
       <c r="H114">
-        <v>39.99761199951172</v>
+        <v>39.997611999511719</v>
       </c>
       <c r="I114" t="s">
         <v>1117</v>
@@ -8123,7 +8152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>5005</v>
       </c>
@@ -8146,7 +8175,7 @@
         <v>116.4782028198242</v>
       </c>
       <c r="H115">
-        <v>40.00276184082031</v>
+        <v>40.002761840820313</v>
       </c>
       <c r="I115" t="s">
         <v>1117</v>
@@ -8161,7 +8190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>5314</v>
       </c>
@@ -8184,7 +8213,7 @@
         <v>116.5289993286133</v>
       </c>
       <c r="H116">
-        <v>40.01432037353516</v>
+        <v>40.014320373535163</v>
       </c>
       <c r="I116" t="s">
         <v>1117</v>
@@ -8199,7 +8228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>5084</v>
       </c>
@@ -8222,7 +8251,7 @@
         <v>116.5093231201172</v>
       </c>
       <c r="H117">
-        <v>40.02030181884766</v>
+        <v>40.020301818847663</v>
       </c>
       <c r="I117" t="s">
         <v>1117</v>
@@ -8237,7 +8266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>5173</v>
       </c>
@@ -8257,10 +8286,10 @@
         <v>793</v>
       </c>
       <c r="G118">
-        <v>116.4576644897461</v>
+        <v>116.45766448974609</v>
       </c>
       <c r="H118">
-        <v>39.90950012207031</v>
+        <v>39.909500122070313</v>
       </c>
       <c r="I118" t="s">
         <v>1117</v>
@@ -8275,7 +8304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>5335</v>
       </c>
@@ -8298,7 +8327,7 @@
         <v>116.4137725830078</v>
       </c>
       <c r="H119">
-        <v>39.97873306274414</v>
+        <v>39.978733062744141</v>
       </c>
       <c r="I119" t="s">
         <v>1117</v>
@@ -8313,7 +8342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>5673</v>
       </c>
@@ -8336,7 +8365,7 @@
         <v>116.5298156738281</v>
       </c>
       <c r="H120">
-        <v>39.94173431396485</v>
+        <v>39.941734313964851</v>
       </c>
       <c r="I120" t="s">
         <v>1117</v>
@@ -8351,7 +8380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>5677</v>
       </c>
@@ -8374,7 +8403,7 @@
         <v>116.5622024536133</v>
       </c>
       <c r="H121">
-        <v>39.91006088256836</v>
+        <v>39.910060882568359</v>
       </c>
       <c r="I121" t="s">
         <v>1117</v>
@@ -8389,7 +8418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>5698</v>
       </c>
@@ -8412,7 +8441,7 @@
         <v>116.4905624389648</v>
       </c>
       <c r="H122">
-        <v>39.97565841674805</v>
+        <v>39.975658416748047</v>
       </c>
       <c r="I122" t="s">
         <v>1117</v>
@@ -8427,7 +8456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>699</v>
       </c>
@@ -8447,10 +8476,10 @@
         <v>798</v>
       </c>
       <c r="G123">
-        <v>116.3025512695312</v>
+        <v>116.30255126953119</v>
       </c>
       <c r="H123">
-        <v>39.90283966064453</v>
+        <v>39.902839660644531</v>
       </c>
       <c r="I123" t="s">
         <v>1117</v>
@@ -8465,7 +8494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>752</v>
       </c>
@@ -8485,7 +8514,7 @@
         <v>799</v>
       </c>
       <c r="G124">
-        <v>116.3156890869141</v>
+        <v>116.31568908691411</v>
       </c>
       <c r="H124">
         <v>39.84375</v>
@@ -8503,7 +8532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>836</v>
       </c>
@@ -8526,7 +8555,7 @@
         <v>116.3461074829102</v>
       </c>
       <c r="H125">
-        <v>39.85405731201172</v>
+        <v>39.854057312011719</v>
       </c>
       <c r="I125" t="s">
         <v>1117</v>
@@ -8541,7 +8570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>1448</v>
       </c>
@@ -8564,7 +8593,7 @@
         <v>116.2873001098633</v>
       </c>
       <c r="H126">
-        <v>39.89614105224609</v>
+        <v>39.896141052246087</v>
       </c>
       <c r="I126" t="s">
         <v>1117</v>
@@ -8579,7 +8608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>2072</v>
       </c>
@@ -8602,7 +8631,7 @@
         <v>116.2920684814453</v>
       </c>
       <c r="H127">
-        <v>39.84196853637695</v>
+        <v>39.841968536376953</v>
       </c>
       <c r="I127" t="s">
         <v>1117</v>
@@ -8617,7 +8646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>2754</v>
       </c>
@@ -8640,7 +8669,7 @@
         <v>116.3370742797852</v>
       </c>
       <c r="H128">
-        <v>39.83821487426758</v>
+        <v>39.838214874267578</v>
       </c>
       <c r="I128" t="s">
         <v>1117</v>
@@ -8655,7 +8684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>2896</v>
       </c>
@@ -8678,7 +8707,7 @@
         <v>116.3916015625</v>
       </c>
       <c r="H129">
-        <v>39.85070037841797</v>
+        <v>39.850700378417969</v>
       </c>
       <c r="I129" t="s">
         <v>1117</v>
@@ -8693,7 +8722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>3178</v>
       </c>
@@ -8713,10 +8742,10 @@
         <v>805</v>
       </c>
       <c r="G130">
-        <v>116.3193206787109</v>
+        <v>116.31932067871089</v>
       </c>
       <c r="H130">
-        <v>39.81733703613281</v>
+        <v>39.817337036132812</v>
       </c>
       <c r="I130" t="s">
         <v>1117</v>
@@ -8731,7 +8760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>3907</v>
       </c>
@@ -8754,7 +8783,7 @@
         <v>116.3786163330078</v>
       </c>
       <c r="H131">
-        <v>39.83843612670898</v>
+        <v>39.838436126708977</v>
       </c>
       <c r="I131" t="s">
         <v>1117</v>
@@ -8769,7 +8798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>4276</v>
       </c>
@@ -8789,10 +8818,10 @@
         <v>807</v>
       </c>
       <c r="G132">
-        <v>116.2915191650391</v>
+        <v>116.29151916503911</v>
       </c>
       <c r="H132">
-        <v>39.86268997192383</v>
+        <v>39.862689971923828</v>
       </c>
       <c r="I132" t="s">
         <v>1117</v>
@@ -8807,7 +8836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>4501</v>
       </c>
@@ -8830,7 +8859,7 @@
         <v>116.2522735595703</v>
       </c>
       <c r="H133">
-        <v>39.89052963256836</v>
+        <v>39.890529632568359</v>
       </c>
       <c r="I133" t="s">
         <v>1117</v>
@@ -8845,7 +8874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>4541</v>
       </c>
@@ -8868,7 +8897,7 @@
         <v>116.444450378418</v>
       </c>
       <c r="H134">
-        <v>39.85820770263672</v>
+        <v>39.858207702636719</v>
       </c>
       <c r="I134" t="s">
         <v>1117</v>
@@ -8883,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>4865</v>
       </c>
@@ -8921,7 +8950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>5051</v>
       </c>
@@ -8941,10 +8970,10 @@
         <v>811</v>
       </c>
       <c r="G136">
-        <v>116.2839965820312</v>
+        <v>116.28399658203119</v>
       </c>
       <c r="H136">
-        <v>39.86695098876953</v>
+        <v>39.866950988769531</v>
       </c>
       <c r="I136" t="s">
         <v>1117</v>
@@ -8959,7 +8988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>5106</v>
       </c>
@@ -8982,7 +9011,7 @@
         <v>116.2406387329102</v>
       </c>
       <c r="H137">
-        <v>39.83484649658203</v>
+        <v>39.834846496582031</v>
       </c>
       <c r="I137" t="s">
         <v>1117</v>
@@ -8997,7 +9026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>722</v>
       </c>
@@ -9017,10 +9046,10 @@
         <v>813</v>
       </c>
       <c r="G138">
-        <v>116.6898345947266</v>
+        <v>116.68983459472661</v>
       </c>
       <c r="H138">
-        <v>39.89747619628906</v>
+        <v>39.897476196289063</v>
       </c>
       <c r="I138" t="s">
         <v>1117</v>
@@ -9035,7 +9064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>1435</v>
       </c>
@@ -9058,7 +9087,7 @@
         <v>116.7203369140625</v>
       </c>
       <c r="H139">
-        <v>39.96980285644531</v>
+        <v>39.969802856445313</v>
       </c>
       <c r="I139" t="s">
         <v>1117</v>
@@ -9073,7 +9102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>2473</v>
       </c>
@@ -9096,7 +9125,7 @@
         <v>116.4570846557617</v>
       </c>
       <c r="H140">
-        <v>40.02705001831055</v>
+        <v>40.027050018310547</v>
       </c>
       <c r="I140" t="s">
         <v>1117</v>
@@ -9111,7 +9140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>2768</v>
       </c>
@@ -9131,10 +9160,10 @@
         <v>816</v>
       </c>
       <c r="G141">
-        <v>116.6599273681641</v>
+        <v>116.65992736816411</v>
       </c>
       <c r="H141">
-        <v>39.89535140991211</v>
+        <v>39.895351409912109</v>
       </c>
       <c r="I141" t="s">
         <v>1117</v>
@@ -9149,7 +9178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>2743</v>
       </c>
@@ -9169,10 +9198,10 @@
         <v>817</v>
       </c>
       <c r="G142">
-        <v>116.5638198852539</v>
+        <v>116.56381988525391</v>
       </c>
       <c r="H142">
-        <v>39.75525283813477</v>
+        <v>39.755252838134773</v>
       </c>
       <c r="I142" t="s">
         <v>1117</v>
@@ -9187,7 +9216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>2865</v>
       </c>
@@ -9210,7 +9239,7 @@
         <v>116.7257995605469</v>
       </c>
       <c r="H143">
-        <v>39.83477020263672</v>
+        <v>39.834770202636719</v>
       </c>
       <c r="I143" t="s">
         <v>1117</v>
@@ -9225,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>2885</v>
       </c>
@@ -9248,7 +9277,7 @@
         <v>116.6427001953125</v>
       </c>
       <c r="H144">
-        <v>39.91508865356445</v>
+        <v>39.915088653564453</v>
       </c>
       <c r="I144" t="s">
         <v>1117</v>
@@ -9263,7 +9292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>3209</v>
       </c>
@@ -9286,7 +9315,7 @@
         <v>116.7329177856445</v>
       </c>
       <c r="H145">
-        <v>39.84530258178711</v>
+        <v>39.845302581787109</v>
       </c>
       <c r="I145" t="s">
         <v>1117</v>
@@ -9301,7 +9330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>3889</v>
       </c>
@@ -9324,7 +9353,7 @@
         <v>116.6314392089844</v>
       </c>
       <c r="H146">
-        <v>39.84601974487305</v>
+        <v>39.846019744873047</v>
       </c>
       <c r="I146" t="s">
         <v>1117</v>
@@ -9339,7 +9368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>4052</v>
       </c>
@@ -9362,7 +9391,7 @@
         <v>116.3569412231445</v>
       </c>
       <c r="H147">
-        <v>40.03514862060547</v>
+        <v>40.035148620605469</v>
       </c>
       <c r="I147" t="s">
         <v>1117</v>
@@ -9377,7 +9406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>4295</v>
       </c>
@@ -9397,10 +9426,10 @@
         <v>823</v>
       </c>
       <c r="G148">
-        <v>116.7104644775391</v>
+        <v>116.71046447753911</v>
       </c>
       <c r="H148">
-        <v>39.72462844848633</v>
+        <v>39.724628448486328</v>
       </c>
       <c r="I148" t="s">
         <v>1117</v>
@@ -9415,7 +9444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>4352</v>
       </c>
@@ -9453,7 +9482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>5268</v>
       </c>
@@ -9476,7 +9505,7 @@
         <v>116.663215637207</v>
       </c>
       <c r="H150">
-        <v>39.86658096313477</v>
+        <v>39.866580963134773</v>
       </c>
       <c r="I150" t="s">
         <v>1117</v>
@@ -9491,7 +9520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>5282</v>
       </c>
@@ -9511,10 +9540,10 @@
         <v>826</v>
       </c>
       <c r="G151">
-        <v>116.6811294555664</v>
+        <v>116.68112945556641</v>
       </c>
       <c r="H151">
-        <v>39.86445617675781</v>
+        <v>39.864456176757813</v>
       </c>
       <c r="I151" t="s">
         <v>1117</v>
@@ -9529,7 +9558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>5288</v>
       </c>
@@ -9552,7 +9581,7 @@
         <v>116.6783905029297</v>
       </c>
       <c r="H152">
-        <v>39.89453506469727</v>
+        <v>39.894535064697273</v>
       </c>
       <c r="I152" t="s">
         <v>1117</v>
@@ -9567,7 +9596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>5308</v>
       </c>
@@ -9590,7 +9619,7 @@
         <v>116.650016784668</v>
       </c>
       <c r="H153">
-        <v>39.89353561401367</v>
+        <v>39.893535614013672</v>
       </c>
       <c r="I153" t="s">
         <v>1117</v>
@@ -9605,7 +9634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>5323</v>
       </c>
@@ -9628,7 +9657,7 @@
         <v>116.6885528564453</v>
       </c>
       <c r="H154">
-        <v>39.88676834106445</v>
+        <v>39.886768341064453</v>
       </c>
       <c r="I154" t="s">
         <v>1117</v>
@@ -9643,7 +9672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>5329</v>
       </c>
@@ -9663,10 +9692,10 @@
         <v>830</v>
       </c>
       <c r="G155">
-        <v>116.7128677368164</v>
+        <v>116.71286773681641</v>
       </c>
       <c r="H155">
-        <v>39.91047668457031</v>
+        <v>39.910476684570313</v>
       </c>
       <c r="I155" t="s">
         <v>1117</v>
@@ -9681,7 +9710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>5350</v>
       </c>
@@ -9701,10 +9730,10 @@
         <v>831</v>
       </c>
       <c r="G156">
-        <v>116.6500015258789</v>
+        <v>116.65000152587891</v>
       </c>
       <c r="H156">
-        <v>39.91999816894531</v>
+        <v>39.919998168945312</v>
       </c>
       <c r="I156" t="s">
         <v>1117</v>
@@ -9719,7 +9748,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>5713</v>
       </c>
@@ -9742,7 +9771,7 @@
         <v>116.7384796142578</v>
       </c>
       <c r="H157">
-        <v>39.88871765136719</v>
+        <v>39.888717651367187</v>
       </c>
       <c r="I157" t="s">
         <v>1117</v>
@@ -9757,7 +9786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>5346</v>
       </c>
@@ -9780,7 +9809,7 @@
         <v>116.647114</v>
       </c>
       <c r="H158">
-        <v>39.905883</v>
+        <v>39.905883000000003</v>
       </c>
       <c r="I158" t="s">
         <v>1117</v>
@@ -9795,7 +9824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>1941</v>
       </c>
@@ -9818,7 +9847,7 @@
         <v>116.6149978637695</v>
       </c>
       <c r="H159">
-        <v>40.04249954223633</v>
+        <v>40.042499542236328</v>
       </c>
       <c r="I159" t="s">
         <v>1118</v>
@@ -9833,7 +9862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>3180</v>
       </c>
@@ -9856,7 +9885,7 @@
         <v>116.5738983154297</v>
       </c>
       <c r="H160">
-        <v>40.07307815551758</v>
+        <v>40.073078155517578</v>
       </c>
       <c r="I160" t="s">
         <v>1117</v>
@@ -9871,7 +9900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>3924</v>
       </c>
@@ -9894,7 +9923,7 @@
         <v>116.550651550293</v>
       </c>
       <c r="H161">
-        <v>40.1092414855957</v>
+        <v>40.109241485595703</v>
       </c>
       <c r="I161" t="s">
         <v>1117</v>
@@ -9909,7 +9938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>4031</v>
       </c>
@@ -9932,7 +9961,7 @@
         <v>116.6007843017578</v>
       </c>
       <c r="H162">
-        <v>40.1263542175293</v>
+        <v>40.126354217529297</v>
       </c>
       <c r="I162" t="s">
         <v>1117</v>
@@ -9947,7 +9976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>4233</v>
       </c>
@@ -9967,10 +9996,10 @@
         <v>838</v>
       </c>
       <c r="G163">
-        <v>116.6045532226562</v>
+        <v>116.60455322265619</v>
       </c>
       <c r="H163">
-        <v>40.12629699707031</v>
+        <v>40.126296997070313</v>
       </c>
       <c r="I163" t="s">
         <v>1117</v>
@@ -9985,7 +10014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>4563</v>
       </c>
@@ -10008,7 +10037,7 @@
         <v>116.8178176879883</v>
       </c>
       <c r="H164">
-        <v>40.15766143798828</v>
+        <v>40.157661437988281</v>
       </c>
       <c r="I164" t="s">
         <v>1117</v>
@@ -10023,7 +10052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>4884</v>
       </c>
@@ -10046,7 +10075,7 @@
         <v>116.6282272338867</v>
       </c>
       <c r="H165">
-        <v>40.1290397644043</v>
+        <v>40.129039764404297</v>
       </c>
       <c r="I165" t="s">
         <v>1117</v>
@@ -10061,7 +10090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>5294</v>
       </c>
@@ -10084,7 +10113,7 @@
         <v>116.6643753051758</v>
       </c>
       <c r="H166">
-        <v>40.1616325378418</v>
+        <v>40.161632537841797</v>
       </c>
       <c r="I166" t="s">
         <v>1117</v>
@@ -10099,7 +10128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>4713</v>
       </c>
@@ -10119,10 +10148,10 @@
         <v>842</v>
       </c>
       <c r="G167">
-        <v>116.2112045288086</v>
+        <v>116.21120452880859</v>
       </c>
       <c r="H167">
-        <v>39.75380706787109</v>
+        <v>39.753807067871087</v>
       </c>
       <c r="I167" t="s">
         <v>1117</v>
@@ -10137,7 +10166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>1201</v>
       </c>
@@ -10157,10 +10186,10 @@
         <v>843</v>
       </c>
       <c r="G168">
-        <v>116.5390014648438</v>
+        <v>116.53900146484381</v>
       </c>
       <c r="H168">
-        <v>39.76308441162109</v>
+        <v>39.763084411621087</v>
       </c>
       <c r="I168" t="s">
         <v>1117</v>
@@ -10175,7 +10204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>1262</v>
       </c>
@@ -10198,7 +10227,7 @@
         <v>116.5126876831055</v>
       </c>
       <c r="H169">
-        <v>39.79936981201172</v>
+        <v>39.799369812011719</v>
       </c>
       <c r="I169" t="s">
         <v>1117</v>
@@ -10213,7 +10242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>1480</v>
       </c>
@@ -10236,7 +10265,7 @@
         <v>116.5309982299805</v>
       </c>
       <c r="H170">
-        <v>39.79954147338867</v>
+        <v>39.799541473388672</v>
       </c>
       <c r="I170" t="s">
         <v>1117</v>
@@ -10251,7 +10280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>2086</v>
       </c>
@@ -10274,7 +10303,7 @@
         <v>116.5160446166992</v>
       </c>
       <c r="H171">
-        <v>39.81124114990234</v>
+        <v>39.811241149902337</v>
       </c>
       <c r="I171" t="s">
         <v>1117</v>
@@ -10289,7 +10318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>2775</v>
       </c>
@@ -10312,7 +10341,7 @@
         <v>116.5141906738281</v>
       </c>
       <c r="H172">
-        <v>39.80770111083984</v>
+        <v>39.807701110839837</v>
       </c>
       <c r="I172" t="s">
         <v>1117</v>
@@ -10327,7 +10356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>2715</v>
       </c>
@@ -10350,7 +10379,7 @@
         <v>116.51611328125</v>
       </c>
       <c r="H173">
-        <v>39.80659866333008</v>
+        <v>39.806598663330078</v>
       </c>
       <c r="I173" t="s">
         <v>1117</v>
@@ -10365,7 +10394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>2761</v>
       </c>
@@ -10388,7 +10417,7 @@
         <v>116.5312423706055</v>
       </c>
       <c r="H174">
-        <v>39.79002380371094</v>
+        <v>39.790023803710937</v>
       </c>
       <c r="I174" t="s">
         <v>1117</v>
@@ -10403,7 +10432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>2869</v>
       </c>
@@ -10426,7 +10455,7 @@
         <v>116.5699996948242</v>
       </c>
       <c r="H175">
-        <v>39.78488922119141</v>
+        <v>39.784889221191413</v>
       </c>
       <c r="I175" t="s">
         <v>1117</v>
@@ -10441,7 +10470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>3916</v>
       </c>
@@ -10464,7 +10493,7 @@
         <v>116.5418701171875</v>
       </c>
       <c r="H176">
-        <v>39.81294631958008</v>
+        <v>39.812946319580078</v>
       </c>
       <c r="I176" t="s">
         <v>1117</v>
@@ -10479,7 +10508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>4508</v>
       </c>
@@ -10517,7 +10546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>5721</v>
       </c>
@@ -10537,10 +10566,10 @@
         <v>853</v>
       </c>
       <c r="G178">
-        <v>116.4592056274414</v>
+        <v>116.45920562744141</v>
       </c>
       <c r="H178">
-        <v>39.80571365356445</v>
+        <v>39.805713653564453</v>
       </c>
       <c r="I178" t="s">
         <v>1117</v>
@@ -10555,7 +10584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>77</v>
       </c>
@@ -10575,10 +10604,10 @@
         <v>854</v>
       </c>
       <c r="G179">
-        <v>116.41600037</v>
+        <v>116.41600037000001</v>
       </c>
       <c r="H179">
-        <v>40.06000137</v>
+        <v>40.060001370000002</v>
       </c>
       <c r="I179" t="s">
         <v>1117</v>
@@ -10593,7 +10622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>578</v>
       </c>
@@ -10613,7 +10642,7 @@
         <v>855</v>
       </c>
       <c r="G180">
-        <v>116.4209976196289</v>
+        <v>116.42099761962891</v>
       </c>
       <c r="H180">
         <v>40.0989990234375</v>
@@ -10631,7 +10660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>834</v>
       </c>
@@ -10654,7 +10683,7 @@
         <v>116.31436157</v>
       </c>
       <c r="H181">
-        <v>40.07938766</v>
+        <v>40.079387660000002</v>
       </c>
       <c r="I181" t="s">
         <v>1117</v>
@@ -10669,7 +10698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>1361</v>
       </c>
@@ -10689,10 +10718,10 @@
         <v>857</v>
       </c>
       <c r="G182">
-        <v>116.3282699584961</v>
+        <v>116.32826995849609</v>
       </c>
       <c r="H182">
-        <v>40.06796264648438</v>
+        <v>40.067962646484382</v>
       </c>
       <c r="I182" t="s">
         <v>1117</v>
@@ -10707,7 +10736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>2070</v>
       </c>
@@ -10727,10 +10756,10 @@
         <v>858</v>
       </c>
       <c r="G183">
-        <v>116.3761978149414</v>
+        <v>116.37619781494141</v>
       </c>
       <c r="H183">
-        <v>40.08772277832031</v>
+        <v>40.087722778320313</v>
       </c>
       <c r="I183" t="s">
         <v>1117</v>
@@ -10745,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>2099</v>
       </c>
@@ -10765,10 +10794,10 @@
         <v>859</v>
       </c>
       <c r="G184">
-        <v>116.3478012084961</v>
+        <v>116.34780120849609</v>
       </c>
       <c r="H184">
-        <v>40.09106063842773</v>
+        <v>40.091060638427727</v>
       </c>
       <c r="I184" t="s">
         <v>1117</v>
@@ -10783,7 +10812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>2101</v>
       </c>
@@ -10806,7 +10835,7 @@
         <v>116.2749786376953</v>
       </c>
       <c r="H185">
-        <v>40.10712814331055</v>
+        <v>40.107128143310547</v>
       </c>
       <c r="I185" t="s">
         <v>1117</v>
@@ -10821,7 +10850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>2168</v>
       </c>
@@ -10844,7 +10873,7 @@
         <v>116.3454208374023</v>
       </c>
       <c r="H186">
-        <v>40.07550811767578</v>
+        <v>40.075508117675781</v>
       </c>
       <c r="I186" t="s">
         <v>1117</v>
@@ -10859,7 +10888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>2758</v>
       </c>
@@ -10879,10 +10908,10 @@
         <v>862</v>
       </c>
       <c r="G187">
-        <v>116.4042816162109</v>
+        <v>116.40428161621089</v>
       </c>
       <c r="H187">
-        <v>40.18539428710938</v>
+        <v>40.185394287109382</v>
       </c>
       <c r="I187" t="s">
         <v>1117</v>
@@ -10897,7 +10926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>2815</v>
       </c>
@@ -10917,10 +10946,10 @@
         <v>863</v>
       </c>
       <c r="G188">
-        <v>116.1461029052734</v>
+        <v>116.14610290527339</v>
       </c>
       <c r="H188">
-        <v>40.15000152587891</v>
+        <v>40.150001525878913</v>
       </c>
       <c r="I188" t="s">
         <v>1117</v>
@@ -10935,7 +10964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>2850</v>
       </c>
@@ -10958,7 +10987,7 @@
         <v>116.2929992675781</v>
       </c>
       <c r="H189">
-        <v>40.16064834594727</v>
+        <v>40.160648345947273</v>
       </c>
       <c r="I189" t="s">
         <v>1117</v>
@@ -10973,7 +11002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>3091</v>
       </c>
@@ -10996,7 +11025,7 @@
         <v>116.43173218</v>
       </c>
       <c r="H190">
-        <v>40.13283920000001</v>
+        <v>40.132839200000006</v>
       </c>
       <c r="I190" t="s">
         <v>1117</v>
@@ -11011,7 +11040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>3083</v>
       </c>
@@ -11031,10 +11060,10 @@
         <v>866</v>
       </c>
       <c r="G191">
-        <v>116.4762191772461</v>
+        <v>116.47621917724609</v>
       </c>
       <c r="H191">
-        <v>40.17813110351562</v>
+        <v>40.178131103515618</v>
       </c>
       <c r="I191" t="s">
         <v>1117</v>
@@ -11049,7 +11078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>3185</v>
       </c>
@@ -11069,10 +11098,10 @@
         <v>867</v>
       </c>
       <c r="G192">
-        <v>116.2702484130859</v>
+        <v>116.27024841308589</v>
       </c>
       <c r="H192">
-        <v>40.10718536376953</v>
+        <v>40.107185363769531</v>
       </c>
       <c r="I192" t="s">
         <v>1117</v>
@@ -11087,7 +11116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>3869</v>
       </c>
@@ -11110,7 +11139,7 @@
         <v>116.2741012573242</v>
       </c>
       <c r="H193">
-        <v>40.19100952148438</v>
+        <v>40.191009521484382</v>
       </c>
       <c r="I193" t="s">
         <v>1117</v>
@@ -11125,7 +11154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>4043</v>
       </c>
@@ -11148,7 +11177,7 @@
         <v>116.3569412231445</v>
       </c>
       <c r="H194">
-        <v>40.03514862060547</v>
+        <v>40.035148620605469</v>
       </c>
       <c r="I194" t="s">
         <v>1117</v>
@@ -11163,7 +11192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>4446</v>
       </c>
@@ -11186,7 +11215,7 @@
         <v>116.2687072753906</v>
       </c>
       <c r="H195">
-        <v>40.15835571289063</v>
+        <v>40.158355712890632</v>
       </c>
       <c r="I195" t="s">
         <v>1117</v>
@@ -11201,7 +11230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>4385</v>
       </c>
@@ -11221,10 +11250,10 @@
         <v>871</v>
       </c>
       <c r="G196">
-        <v>116.2994155883789</v>
+        <v>116.29941558837891</v>
       </c>
       <c r="H196">
-        <v>40.2133674621582</v>
+        <v>40.213367462158203</v>
       </c>
       <c r="I196" t="s">
         <v>1117</v>
@@ -11239,7 +11268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>4671</v>
       </c>
@@ -11262,7 +11291,7 @@
         <v>116.3469924926758</v>
       </c>
       <c r="H197">
-        <v>40.06601715087891</v>
+        <v>40.066017150878913</v>
       </c>
       <c r="I197" t="s">
         <v>1117</v>
@@ -11277,7 +11306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>4853</v>
       </c>
@@ -11297,10 +11326,10 @@
         <v>873</v>
       </c>
       <c r="G198">
-        <v>116.2668304443359</v>
+        <v>116.26683044433589</v>
       </c>
       <c r="H198">
-        <v>40.16877746582031</v>
+        <v>40.168777465820312</v>
       </c>
       <c r="I198" t="s">
         <v>1117</v>
@@ -11315,7 +11344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>3856</v>
       </c>
@@ -11353,7 +11382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>1405</v>
       </c>
@@ -11376,7 +11405,7 @@
         <v>113.2563018798828</v>
       </c>
       <c r="H200">
-        <v>23.16114234924316</v>
+        <v>23.161142349243161</v>
       </c>
       <c r="I200" t="s">
         <v>1119</v>
@@ -11391,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>4175</v>
       </c>
@@ -11429,7 +11458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>4203</v>
       </c>
@@ -11452,7 +11481,7 @@
         <v>113.4494323730469</v>
       </c>
       <c r="H202">
-        <v>23.09543037414551</v>
+        <v>23.095430374145511</v>
       </c>
       <c r="I202" t="s">
         <v>1119</v>
@@ -11467,7 +11496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>4737</v>
       </c>
@@ -11487,7 +11516,7 @@
         <v>878</v>
       </c>
       <c r="G203">
-        <v>113.3714752197266</v>
+        <v>113.37147521972661</v>
       </c>
       <c r="H203">
         <v>23.09657096862793</v>
@@ -11505,7 +11534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>5688</v>
       </c>
@@ -11543,7 +11572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>2481</v>
       </c>
@@ -11563,10 +11592,10 @@
         <v>880</v>
       </c>
       <c r="G205">
-        <v>113.4117202758789</v>
+        <v>113.41172027587891</v>
       </c>
       <c r="H205">
-        <v>23.16715621948243</v>
+        <v>23.167156219482429</v>
       </c>
       <c r="I205" t="s">
         <v>1119</v>
@@ -11581,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>3195</v>
       </c>
@@ -11619,7 +11648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>3980</v>
       </c>
@@ -11657,7 +11686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>81</v>
       </c>
@@ -11695,7 +11724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>3787</v>
       </c>
@@ -11733,7 +11762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>3992</v>
       </c>
@@ -11753,10 +11782,10 @@
         <v>885</v>
       </c>
       <c r="G210">
-        <v>113.2619018554688</v>
+        <v>113.26190185546881</v>
       </c>
       <c r="H210">
-        <v>23.19394111633301</v>
+        <v>23.193941116333011</v>
       </c>
       <c r="I210" t="s">
         <v>1119</v>
@@ -11771,7 +11800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>4112</v>
       </c>
@@ -11809,7 +11838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>4125</v>
       </c>
@@ -11829,10 +11858,10 @@
         <v>887</v>
       </c>
       <c r="G212">
-        <v>113.5022964477539</v>
+        <v>113.50229644775391</v>
       </c>
       <c r="H212">
-        <v>23.11505508422852</v>
+        <v>23.115055084228519</v>
       </c>
       <c r="I212" t="s">
         <v>1119</v>
@@ -11847,7 +11876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>4187</v>
       </c>
@@ -11870,7 +11899,7 @@
         <v>113.453239440918</v>
       </c>
       <c r="H213">
-        <v>23.11255645751953</v>
+        <v>23.112556457519531</v>
       </c>
       <c r="I213" t="s">
         <v>1119</v>
@@ -11885,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>5115</v>
       </c>
@@ -11905,10 +11934,10 @@
         <v>889</v>
       </c>
       <c r="G214">
-        <v>113.4977798461914</v>
+        <v>113.49777984619141</v>
       </c>
       <c r="H214">
-        <v>23.11055564880371</v>
+        <v>23.110555648803711</v>
       </c>
       <c r="I214" t="s">
         <v>1119</v>
@@ -11923,7 +11952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>809</v>
       </c>
@@ -11946,7 +11975,7 @@
         <v>113.4272994995117</v>
       </c>
       <c r="H215">
-        <v>22.99365997314453</v>
+        <v>22.993659973144531</v>
       </c>
       <c r="I215" t="s">
         <v>1119</v>
@@ -11961,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>945</v>
       </c>
@@ -11984,7 +12013,7 @@
         <v>113.5024032592773</v>
       </c>
       <c r="H216">
-        <v>22.97047996520996</v>
+        <v>22.970479965209961</v>
       </c>
       <c r="I216" t="s">
         <v>1119</v>
@@ -11999,7 +12028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>1107</v>
       </c>
@@ -12022,7 +12051,7 @@
         <v>113.3953018188477</v>
       </c>
       <c r="H217">
-        <v>22.93161010742188</v>
+        <v>22.931610107421879</v>
       </c>
       <c r="I217" t="s">
         <v>1119</v>
@@ -12037,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>1328</v>
       </c>
@@ -12057,10 +12086,10 @@
         <v>893</v>
       </c>
       <c r="G218">
-        <v>113.3646469116211</v>
+        <v>113.36464691162109</v>
       </c>
       <c r="H218">
-        <v>22.91683578491211</v>
+        <v>22.916835784912109</v>
       </c>
       <c r="I218" t="s">
         <v>1119</v>
@@ -12075,7 +12104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>1409</v>
       </c>
@@ -12098,7 +12127,7 @@
         <v>113.426887512207</v>
       </c>
       <c r="H219">
-        <v>22.99537849426269</v>
+        <v>22.995378494262692</v>
       </c>
       <c r="I219" t="s">
         <v>1119</v>
@@ -12113,7 +12142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>4163</v>
       </c>
@@ -12136,7 +12165,7 @@
         <v>113.3634338378906</v>
       </c>
       <c r="H220">
-        <v>23.99662208557129</v>
+        <v>23.996622085571289</v>
       </c>
       <c r="I220" t="s">
         <v>1119</v>
@@ -12151,7 +12180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>4318</v>
       </c>
@@ -12189,7 +12218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>5060</v>
       </c>
@@ -12212,7 +12241,7 @@
         <v>113.2978210449219</v>
       </c>
       <c r="H222">
-        <v>23.04952812194824</v>
+        <v>23.049528121948239</v>
       </c>
       <c r="I222" t="s">
         <v>1119</v>
@@ -12227,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>1335</v>
       </c>
@@ -12247,10 +12276,10 @@
         <v>898</v>
       </c>
       <c r="G223">
-        <v>113.4244995117188</v>
+        <v>113.42449951171881</v>
       </c>
       <c r="H223">
-        <v>23.16451072692871</v>
+        <v>23.164510726928711</v>
       </c>
       <c r="I223" t="s">
         <v>1119</v>
@@ -12265,7 +12294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>1012</v>
       </c>
@@ -12288,7 +12317,7 @@
         <v>114.0816650390625</v>
       </c>
       <c r="H224">
-        <v>22.56055641174316</v>
+        <v>22.560556411743161</v>
       </c>
       <c r="I224" t="s">
         <v>1120</v>
@@ -12303,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>1250</v>
       </c>
@@ -12341,7 +12370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>1343</v>
       </c>
@@ -12364,7 +12393,7 @@
         <v>114.0242385864258</v>
       </c>
       <c r="H226">
-        <v>22.53128242492676</v>
+        <v>22.531282424926761</v>
       </c>
       <c r="I226" t="s">
         <v>1120</v>
@@ -12379,7 +12408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>1358</v>
       </c>
@@ -12399,10 +12428,10 @@
         <v>902</v>
       </c>
       <c r="G227">
-        <v>114.1044311523438</v>
+        <v>114.10443115234381</v>
       </c>
       <c r="H227">
-        <v>22.54013252258301</v>
+        <v>22.540132522583011</v>
       </c>
       <c r="I227" t="s">
         <v>1120</v>
@@ -12417,7 +12446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>2941</v>
       </c>
@@ -12437,10 +12466,10 @@
         <v>903</v>
       </c>
       <c r="G228">
-        <v>114.0730972290039</v>
+        <v>114.07309722900391</v>
       </c>
       <c r="H228">
-        <v>22.56439971923828</v>
+        <v>22.564399719238281</v>
       </c>
       <c r="I228" t="s">
         <v>1120</v>
@@ -12455,7 +12484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>3969</v>
       </c>
@@ -12493,7 +12522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>4089</v>
       </c>
@@ -12531,7 +12560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>4225</v>
       </c>
@@ -12554,7 +12583,7 @@
         <v>114.0524597167969</v>
       </c>
       <c r="H231">
-        <v>22.54989433288575</v>
+        <v>22.549894332885749</v>
       </c>
       <c r="I231" t="s">
         <v>1120</v>
@@ -12569,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>5189</v>
       </c>
@@ -12592,7 +12621,7 @@
         <v>114.0763244628906</v>
       </c>
       <c r="H232">
-        <v>22.53534889221191</v>
+        <v>22.535348892211911</v>
       </c>
       <c r="I232" t="s">
         <v>1120</v>
@@ -12607,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>5735</v>
       </c>
@@ -12627,10 +12656,10 @@
         <v>908</v>
       </c>
       <c r="G233">
-        <v>114.0913696289062</v>
+        <v>114.09136962890619</v>
       </c>
       <c r="H233">
-        <v>22.56505966186523</v>
+        <v>22.565059661865231</v>
       </c>
       <c r="I233" t="s">
         <v>1120</v>
@@ -12645,7 +12674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>5806</v>
       </c>
@@ -12683,7 +12712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>4960</v>
       </c>
@@ -12703,7 +12732,7 @@
         <v>910</v>
       </c>
       <c r="G235">
-        <v>114.0916976928711</v>
+        <v>114.09169769287109</v>
       </c>
       <c r="H235">
         <v>22.58152961730957</v>
@@ -12721,7 +12750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>5770</v>
       </c>
@@ -12744,7 +12773,7 @@
         <v>114.1175079345703</v>
       </c>
       <c r="H236">
-        <v>22.53717994689941</v>
+        <v>22.537179946899411</v>
       </c>
       <c r="I236" t="s">
         <v>1120</v>
@@ -12759,7 +12788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>2170</v>
       </c>
@@ -12779,10 +12808,10 @@
         <v>912</v>
       </c>
       <c r="G237">
-        <v>113.9214096069336</v>
+        <v>113.92140960693359</v>
       </c>
       <c r="H237">
-        <v>22.54408645629883</v>
+        <v>22.544086456298832</v>
       </c>
       <c r="I237" t="s">
         <v>1120</v>
@@ -12797,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>2420</v>
       </c>
@@ -12835,7 +12864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>2697</v>
       </c>
@@ -12858,7 +12887,7 @@
         <v>113.93408966</v>
       </c>
       <c r="H239">
-        <v>22.53102875</v>
+        <v>22.531028750000001</v>
       </c>
       <c r="I239" t="s">
         <v>1120</v>
@@ -12873,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>4631</v>
       </c>
@@ -12893,10 +12922,10 @@
         <v>915</v>
       </c>
       <c r="G240">
-        <v>113.9391021728516</v>
+        <v>113.93910217285161</v>
       </c>
       <c r="H240">
-        <v>22.5196704864502</v>
+        <v>22.519670486450199</v>
       </c>
       <c r="I240" t="s">
         <v>1120</v>
@@ -12911,7 +12940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>4639</v>
       </c>
@@ -12931,7 +12960,7 @@
         <v>916</v>
       </c>
       <c r="G241">
-        <v>113.9304428100586</v>
+        <v>113.93044281005859</v>
       </c>
       <c r="H241">
         <v>22.56525993347168</v>
@@ -12949,7 +12978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>4582</v>
       </c>
@@ -12969,10 +12998,10 @@
         <v>917</v>
       </c>
       <c r="G242">
-        <v>113.9498138427734</v>
+        <v>113.94981384277339</v>
       </c>
       <c r="H242">
-        <v>22.57187271118164</v>
+        <v>22.571872711181641</v>
       </c>
       <c r="I242" t="s">
         <v>1120</v>
@@ -12987,7 +13016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>5663</v>
       </c>
@@ -13007,10 +13036,10 @@
         <v>918</v>
       </c>
       <c r="G243">
-        <v>113.9563980102539</v>
+        <v>113.95639801025391</v>
       </c>
       <c r="H243">
-        <v>22.55655288696289</v>
+        <v>22.556552886962891</v>
       </c>
       <c r="I243" t="s">
         <v>1120</v>
@@ -13025,7 +13054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>3653</v>
       </c>
@@ -13045,10 +13074,10 @@
         <v>919</v>
       </c>
       <c r="G244">
-        <v>114.2380981445312</v>
+        <v>114.23809814453119</v>
       </c>
       <c r="H244">
-        <v>22.6009693145752</v>
+        <v>22.600969314575199</v>
       </c>
       <c r="I244" t="s">
         <v>1120</v>
@@ -13063,7 +13092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>1593</v>
       </c>
@@ -13083,7 +13112,7 @@
         <v>920</v>
       </c>
       <c r="G245">
-        <v>114.2441635131836</v>
+        <v>114.24416351318359</v>
       </c>
       <c r="H245">
         <v>22.58305549621582</v>
@@ -13101,7 +13130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>2328</v>
       </c>
@@ -13139,7 +13168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>3548</v>
       </c>
@@ -13162,7 +13191,7 @@
         <v>113.8335037231445</v>
       </c>
       <c r="H247">
-        <v>22.63924026489257</v>
+        <v>22.639240264892571</v>
       </c>
       <c r="I247" t="s">
         <v>1120</v>
@@ -13177,7 +13206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>3575</v>
       </c>
@@ -13197,10 +13226,10 @@
         <v>923</v>
       </c>
       <c r="G248">
-        <v>113.8396987915039</v>
+        <v>113.83969879150391</v>
       </c>
       <c r="H248">
-        <v>22.69179916381836</v>
+        <v>22.691799163818359</v>
       </c>
       <c r="I248" t="s">
         <v>1120</v>
@@ -13215,7 +13244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>3602</v>
       </c>
@@ -13238,7 +13267,7 @@
         <v>113.8342971801758</v>
       </c>
       <c r="H249">
-        <v>22.74678039550781</v>
+        <v>22.746780395507809</v>
       </c>
       <c r="I249" t="s">
         <v>1120</v>
@@ -13253,7 +13282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>3638</v>
       </c>
@@ -13276,7 +13305,7 @@
         <v>113.8850021362305</v>
       </c>
       <c r="H250">
-        <v>22.80987930297852</v>
+        <v>22.809879302978519</v>
       </c>
       <c r="I250" t="s">
         <v>1120</v>
@@ -13291,7 +13320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>1278</v>
       </c>
@@ -13329,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>1602</v>
       </c>
@@ -13352,7 +13381,7 @@
         <v>113.8763885498047</v>
       </c>
       <c r="H252">
-        <v>22.56111145019531</v>
+        <v>22.561111450195309</v>
       </c>
       <c r="I252" t="s">
         <v>1120</v>
@@ -13367,7 +13396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>1859</v>
       </c>
@@ -13405,7 +13434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>1650</v>
       </c>
@@ -13428,7 +13457,7 @@
         <v>113.8958358764648</v>
       </c>
       <c r="H254">
-        <v>22.59000015258789</v>
+        <v>22.590000152587891</v>
       </c>
       <c r="I254" t="s">
         <v>1120</v>
@@ -13443,7 +13472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>1682</v>
       </c>
@@ -13463,10 +13492,10 @@
         <v>930</v>
       </c>
       <c r="G255">
-        <v>113.8805541992188</v>
+        <v>113.88055419921881</v>
       </c>
       <c r="H255">
-        <v>22.56444358825684</v>
+        <v>22.564443588256839</v>
       </c>
       <c r="I255" t="s">
         <v>1120</v>
@@ -13481,7 +13510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>1827</v>
       </c>
@@ -13519,7 +13548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>1890</v>
       </c>
@@ -13539,10 +13568,10 @@
         <v>932</v>
       </c>
       <c r="G257">
-        <v>113.9113922119141</v>
+        <v>113.91139221191411</v>
       </c>
       <c r="H257">
-        <v>22.57305526733398</v>
+        <v>22.573055267333981</v>
       </c>
       <c r="I257" t="s">
         <v>1120</v>
@@ -13557,7 +13586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>1921</v>
       </c>
@@ -13577,10 +13606,10 @@
         <v>933</v>
       </c>
       <c r="G258">
-        <v>113.9030990600586</v>
+        <v>113.90309906005859</v>
       </c>
       <c r="H258">
-        <v>22.57278060913086</v>
+        <v>22.572780609130859</v>
       </c>
       <c r="I258" t="s">
         <v>1120</v>
@@ -13595,7 +13624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>1712</v>
       </c>
@@ -13633,7 +13662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>1744</v>
       </c>
@@ -13671,7 +13700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>1795</v>
       </c>
@@ -13709,7 +13738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>1811</v>
       </c>
@@ -13732,7 +13761,7 @@
         <v>113.8652801513672</v>
       </c>
       <c r="H262">
-        <v>22.58194351196289</v>
+        <v>22.581943511962891</v>
       </c>
       <c r="I262" t="s">
         <v>1120</v>
@@ -13747,7 +13776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>2338</v>
       </c>
@@ -13785,7 +13814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>3998</v>
       </c>
@@ -13808,7 +13837,7 @@
         <v>113.8687744140625</v>
       </c>
       <c r="H264">
-        <v>22.54882621765137</v>
+        <v>22.548826217651371</v>
       </c>
       <c r="I264" t="s">
         <v>1120</v>
@@ -13823,7 +13852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>4200</v>
       </c>
@@ -13846,7 +13875,7 @@
         <v>113.90779114</v>
       </c>
       <c r="H265">
-        <v>22.56894684</v>
+        <v>22.568946839999999</v>
       </c>
       <c r="I265" t="s">
         <v>1120</v>
@@ -13861,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>4314</v>
       </c>
@@ -13884,7 +13913,7 @@
         <v>113.8483352661133</v>
       </c>
       <c r="H266">
-        <v>22.58111190795898</v>
+        <v>22.581111907958981</v>
       </c>
       <c r="I266" t="s">
         <v>1120</v>
@@ -13899,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>4656</v>
       </c>
@@ -13919,10 +13948,10 @@
         <v>942</v>
       </c>
       <c r="G267">
-        <v>114.0389251708984</v>
+        <v>114.03892517089839</v>
       </c>
       <c r="H267">
-        <v>22.55856323242188</v>
+        <v>22.558563232421879</v>
       </c>
       <c r="I267" t="s">
         <v>1120</v>
@@ -13937,7 +13966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>5830</v>
       </c>
@@ -13975,7 +14004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>5894</v>
       </c>
@@ -14013,7 +14042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>3539</v>
       </c>
@@ -14051,7 +14080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>1555</v>
       </c>
@@ -14074,7 +14103,7 @@
         <v>114.1122970581055</v>
       </c>
       <c r="H271">
-        <v>22.65106010437012</v>
+        <v>22.651060104370121</v>
       </c>
       <c r="I271" t="s">
         <v>1120</v>
@@ -14089,7 +14118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>2405</v>
       </c>
@@ -14127,7 +14156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>2435</v>
       </c>
@@ -14165,7 +14194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>2667</v>
       </c>
@@ -14185,10 +14214,10 @@
         <v>949</v>
       </c>
       <c r="G274">
-        <v>114.1498413085938</v>
+        <v>114.14984130859381</v>
       </c>
       <c r="H274">
-        <v>22.6466007232666</v>
+        <v>22.646600723266602</v>
       </c>
       <c r="I274" t="s">
         <v>1120</v>
@@ -14203,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>2909</v>
       </c>
@@ -14226,7 +14255,7 @@
         <v>114.129768371582</v>
       </c>
       <c r="H275">
-        <v>22.65179824829102</v>
+        <v>22.651798248291019</v>
       </c>
       <c r="I275" t="s">
         <v>1120</v>
@@ -14241,7 +14270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>2925</v>
       </c>
@@ -14279,7 +14308,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>3105</v>
       </c>
@@ -14302,7 +14331,7 @@
         <v>114.2564010620117</v>
       </c>
       <c r="H277">
-        <v>22.73382949829102</v>
+        <v>22.733829498291019</v>
       </c>
       <c r="I277" t="s">
         <v>1120</v>
@@ -14317,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>3627</v>
       </c>
@@ -14355,7 +14384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>3672</v>
       </c>
@@ -14378,7 +14407,7 @@
         <v>113.9477996826172</v>
       </c>
       <c r="H279">
-        <v>22.78310966491699</v>
+        <v>22.783109664916989</v>
       </c>
       <c r="I279" t="s">
         <v>1120</v>
@@ -14393,7 +14422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>3004</v>
       </c>
@@ -14431,7 +14460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>3645</v>
       </c>
@@ -14454,7 +14483,7 @@
         <v>114.3095016479492</v>
       </c>
       <c r="H281">
-        <v>22.67407035827637</v>
+        <v>22.674070358276371</v>
       </c>
       <c r="I281" t="s">
         <v>1120</v>
@@ -14469,7 +14498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>2502</v>
       </c>
@@ -14489,10 +14518,10 @@
         <v>957</v>
       </c>
       <c r="G282">
-        <v>114.0411148071289</v>
+        <v>114.04111480712891</v>
       </c>
       <c r="H282">
-        <v>22.60138893127441</v>
+        <v>22.601388931274411</v>
       </c>
       <c r="I282" t="s">
         <v>1120</v>
@@ -14507,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>3006</v>
       </c>
@@ -14527,7 +14556,7 @@
         <v>958</v>
       </c>
       <c r="G283">
-        <v>113.9900054931641</v>
+        <v>113.99000549316411</v>
       </c>
       <c r="H283">
         <v>22.70391654968261</v>
@@ -14545,7 +14574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>3022</v>
       </c>
@@ -14568,7 +14597,7 @@
         <v>113.9375839233398</v>
       </c>
       <c r="H284">
-        <v>22.67257881164551</v>
+        <v>22.672578811645511</v>
       </c>
       <c r="I284" t="s">
         <v>1120</v>
@@ -14583,7 +14612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>4617</v>
       </c>
@@ -14621,7 +14650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>4933</v>
       </c>
@@ -14641,10 +14670,10 @@
         <v>961</v>
       </c>
       <c r="G286">
-        <v>114.0682601928711</v>
+        <v>114.06826019287109</v>
       </c>
       <c r="H286">
-        <v>22.68074035644531</v>
+        <v>22.680740356445309</v>
       </c>
       <c r="I286" t="s">
         <v>1120</v>
@@ -14659,7 +14688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>5846</v>
       </c>
@@ -14682,7 +14711,7 @@
         <v>114.0308303833008</v>
       </c>
       <c r="H287">
-        <v>22.63888931274414</v>
+        <v>22.638889312744141</v>
       </c>
       <c r="I287" t="s">
         <v>1120</v>
@@ -14697,7 +14726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>3833</v>
       </c>
@@ -14720,7 +14749,7 @@
         <v>115.195556640625</v>
       </c>
       <c r="H288">
-        <v>36.82421112060547</v>
+        <v>36.824211120605469</v>
       </c>
       <c r="I288" t="s">
         <v>1117</v>
@@ -14735,7 +14764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>3131</v>
       </c>
@@ -14758,7 +14787,7 @@
         <v>116.6707000732422</v>
       </c>
       <c r="H289">
-        <v>39.4770393371582</v>
+        <v>39.477039337158203</v>
       </c>
       <c r="I289" t="s">
         <v>1117</v>
@@ -14773,7 +14802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>3780</v>
       </c>
@@ -14796,7 +14825,7 @@
         <v>116.2917022705078</v>
       </c>
       <c r="H290">
-        <v>39.45708084106445</v>
+        <v>39.457080841064453</v>
       </c>
       <c r="I290" t="s">
         <v>1117</v>
@@ -14811,7 +14840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>3853</v>
       </c>
@@ -14834,7 +14863,7 @@
         <v>116.3995056152344</v>
       </c>
       <c r="H291">
-        <v>39.10311889648438</v>
+        <v>39.103118896484382</v>
       </c>
       <c r="I291" t="s">
         <v>1117</v>
@@ -14849,7 +14878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>4491</v>
       </c>
@@ -14872,7 +14901,7 @@
         <v>113.2213973999023</v>
       </c>
       <c r="H292">
-        <v>28.19300079345703</v>
+        <v>28.193000793457031</v>
       </c>
       <c r="I292" t="s">
         <v>1118</v>
@@ -14887,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>4492</v>
       </c>
@@ -14910,7 +14939,7 @@
         <v>113.2213973999023</v>
       </c>
       <c r="H293">
-        <v>28.19300079345703</v>
+        <v>28.193000793457031</v>
       </c>
       <c r="I293" t="s">
         <v>1118</v>
@@ -14925,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>4493</v>
       </c>
@@ -14948,7 +14977,7 @@
         <v>113.2213973999023</v>
       </c>
       <c r="H294">
-        <v>28.19300079345703</v>
+        <v>28.193000793457031</v>
       </c>
       <c r="I294" t="s">
         <v>1118</v>
@@ -14963,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>5782</v>
       </c>
@@ -14986,7 +15015,7 @@
         <v>113.2213973999023</v>
       </c>
       <c r="H295">
-        <v>28.19300079345703</v>
+        <v>28.193000793457031</v>
       </c>
       <c r="I295" t="s">
         <v>1118</v>
@@ -15001,7 +15030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>5781</v>
       </c>
@@ -15024,7 +15053,7 @@
         <v>113.2213973999023</v>
       </c>
       <c r="H296">
-        <v>28.19300079345703</v>
+        <v>28.193000793457031</v>
       </c>
       <c r="I296" t="s">
         <v>1118</v>
@@ -15039,7 +15068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>5780</v>
       </c>
@@ -15062,7 +15091,7 @@
         <v>113.2213973999023</v>
       </c>
       <c r="H297">
-        <v>28.19300079345703</v>
+        <v>28.193000793457031</v>
       </c>
       <c r="I297" t="s">
         <v>1118</v>
@@ -15077,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>5783</v>
       </c>
@@ -15100,7 +15129,7 @@
         <v>113.2213973999023</v>
       </c>
       <c r="H298">
-        <v>28.19300079345703</v>
+        <v>28.193000793457031</v>
       </c>
       <c r="I298" t="s">
         <v>1118</v>
@@ -15115,7 +15144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>2309</v>
       </c>
@@ -15135,10 +15164,10 @@
         <v>974</v>
       </c>
       <c r="G299">
-        <v>113.1291732788086</v>
+        <v>113.12917327880859</v>
       </c>
       <c r="H299">
-        <v>27.8174991607666</v>
+        <v>27.817499160766602</v>
       </c>
       <c r="I299" t="s">
         <v>1121</v>
@@ -15153,7 +15182,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>2616</v>
       </c>
@@ -15176,7 +15205,7 @@
         <v>113.1186065673828</v>
       </c>
       <c r="H300">
-        <v>27.8447208404541</v>
+        <v>27.844720840454102</v>
       </c>
       <c r="I300" t="s">
         <v>1121</v>
@@ -15191,7 +15220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>3128</v>
       </c>
@@ -15214,7 +15243,7 @@
         <v>113.0741729736328</v>
       </c>
       <c r="H301">
-        <v>27.81777954101562</v>
+        <v>27.817779541015621</v>
       </c>
       <c r="I301" t="s">
         <v>1121</v>
@@ -15229,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>3133</v>
       </c>
@@ -15267,7 +15296,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>4773</v>
       </c>
@@ -15305,7 +15334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>4796</v>
       </c>
@@ -15343,7 +15372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>4760</v>
       </c>
@@ -15366,7 +15395,7 @@
         <v>113.0931015014648</v>
       </c>
       <c r="H305">
-        <v>27.89340019226075</v>
+        <v>27.893400192260749</v>
       </c>
       <c r="I305" t="s">
         <v>1121</v>
@@ -15381,7 +15410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>3731</v>
       </c>
@@ -15404,7 +15433,7 @@
         <v>120.236701965332</v>
       </c>
       <c r="H306">
-        <v>33.37360000610352</v>
+        <v>33.373600006103523</v>
       </c>
       <c r="I306" t="s">
         <v>1122</v>
@@ -15419,7 +15448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>2490</v>
       </c>
@@ -15442,7 +15471,7 @@
         <v>120.245002746582</v>
       </c>
       <c r="H307">
-        <v>33.35599899291992</v>
+        <v>33.355998992919922</v>
       </c>
       <c r="I307" t="s">
         <v>1122</v>
@@ -15457,7 +15486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>663</v>
       </c>
@@ -15477,10 +15506,10 @@
         <v>983</v>
       </c>
       <c r="G308">
-        <v>120.2794036865234</v>
+        <v>120.27940368652339</v>
       </c>
       <c r="H308">
-        <v>33.38843154907227</v>
+        <v>33.388431549072273</v>
       </c>
       <c r="I308" t="s">
         <v>1122</v>
@@ -15495,7 +15524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>1074</v>
       </c>
@@ -15518,7 +15547,7 @@
         <v>120.2729797363281</v>
       </c>
       <c r="H309">
-        <v>33.36043930053711</v>
+        <v>33.360439300537109</v>
       </c>
       <c r="I309" t="s">
         <v>1122</v>
@@ -15533,7 +15562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>4931</v>
       </c>
@@ -15556,7 +15585,7 @@
         <v>120.2848587036133</v>
       </c>
       <c r="H310">
-        <v>33.37965393066406</v>
+        <v>33.379653930664062</v>
       </c>
       <c r="I310" t="s">
         <v>1122</v>
@@ -15571,7 +15600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>4975</v>
       </c>
@@ -15591,10 +15620,10 @@
         <v>986</v>
       </c>
       <c r="G311">
-        <v>120.2370452880859</v>
+        <v>120.23704528808589</v>
       </c>
       <c r="H311">
-        <v>33.38860321044922</v>
+        <v>33.388603210449219</v>
       </c>
       <c r="I311" t="s">
         <v>1122</v>
@@ -15609,7 +15638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>4986</v>
       </c>
@@ -15632,7 +15661,7 @@
         <v>120.2336807250977</v>
       </c>
       <c r="H312">
-        <v>33.35954666137695</v>
+        <v>33.359546661376953</v>
       </c>
       <c r="I312" t="s">
         <v>1122</v>
@@ -15647,7 +15676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>5070</v>
       </c>
@@ -15670,7 +15699,7 @@
         <v>120.2283096313477</v>
       </c>
       <c r="H313">
-        <v>33.38692474365234</v>
+        <v>33.386924743652337</v>
       </c>
       <c r="I313" t="s">
         <v>1122</v>
@@ -15685,7 +15714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>5130</v>
       </c>
@@ -15708,7 +15737,7 @@
         <v>120.2385635375977</v>
       </c>
       <c r="H314">
-        <v>33.38431930541992</v>
+        <v>33.384319305419922</v>
       </c>
       <c r="I314" t="s">
         <v>1122</v>
@@ -15723,7 +15752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>529</v>
       </c>
@@ -15746,7 +15775,7 @@
         <v>120.1169967651367</v>
       </c>
       <c r="H315">
-        <v>33.42399978637695</v>
+        <v>33.423999786376953</v>
       </c>
       <c r="I315" t="s">
         <v>1122</v>
@@ -15761,7 +15790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>2497</v>
       </c>
@@ -15784,7 +15813,7 @@
         <v>120.141487121582</v>
       </c>
       <c r="H316">
-        <v>33.37334823608398</v>
+        <v>33.373348236083977</v>
       </c>
       <c r="I316" t="s">
         <v>1122</v>
@@ -15799,7 +15828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>4995</v>
       </c>
@@ -15822,7 +15851,7 @@
         <v>120.1566696166992</v>
       </c>
       <c r="H317">
-        <v>33.39805221557617</v>
+        <v>33.398052215576172</v>
       </c>
       <c r="I317" t="s">
         <v>1122</v>
@@ -15837,7 +15866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>5164</v>
       </c>
@@ -15860,7 +15889,7 @@
         <v>120.1906280517578</v>
       </c>
       <c r="H318">
-        <v>33.34263610839844</v>
+        <v>33.342636108398438</v>
       </c>
       <c r="I318" t="s">
         <v>1122</v>
@@ -15875,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>2484</v>
       </c>
@@ -15898,7 +15927,7 @@
         <v>120.1197891235352</v>
       </c>
       <c r="H319">
-        <v>33.30946350097656</v>
+        <v>33.309463500976562</v>
       </c>
       <c r="I319" t="s">
         <v>1122</v>
@@ -15913,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>2646</v>
       </c>
@@ -15936,7 +15965,7 @@
         <v>120.1080627441406</v>
       </c>
       <c r="H320">
-        <v>33.44620513916016</v>
+        <v>33.446205139160163</v>
       </c>
       <c r="I320" t="s">
         <v>1122</v>
@@ -15951,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>2654</v>
       </c>
@@ -15974,7 +16003,7 @@
         <v>120.1698760986328</v>
       </c>
       <c r="H321">
-        <v>33.34447479248047</v>
+        <v>33.344474792480469</v>
       </c>
       <c r="I321" t="s">
         <v>1122</v>
@@ -15989,7 +16018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>4143</v>
       </c>
@@ -16012,7 +16041,7 @@
         <v>120.1773300170898</v>
       </c>
       <c r="H322">
-        <v>33.3205451965332</v>
+        <v>33.320545196533203</v>
       </c>
       <c r="I322" t="s">
         <v>1122</v>
@@ -16027,7 +16056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>5139</v>
       </c>
@@ -16050,7 +16079,7 @@
         <v>120.1674728393555</v>
       </c>
       <c r="H323">
-        <v>33.34337615966797</v>
+        <v>33.343376159667969</v>
       </c>
       <c r="I323" t="s">
         <v>1122</v>
@@ -16065,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>5159</v>
       </c>
@@ -16088,7 +16117,7 @@
         <v>120.1450500488281</v>
       </c>
       <c r="H324">
-        <v>33.35478973388672</v>
+        <v>33.354789733886719</v>
       </c>
       <c r="I324" t="s">
         <v>1122</v>
@@ -16103,7 +16132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>4928</v>
       </c>
@@ -16123,10 +16152,10 @@
         <v>1000</v>
       </c>
       <c r="G325">
-        <v>120.2352066040039</v>
+        <v>120.23520660400391</v>
       </c>
       <c r="H325">
-        <v>33.74320983886719</v>
+        <v>33.743209838867188</v>
       </c>
       <c r="I325" t="s">
         <v>1122</v>
@@ -16141,7 +16170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>5262</v>
       </c>
@@ -16164,7 +16193,7 @@
         <v>120.2969055175781</v>
       </c>
       <c r="H326">
-        <v>33.79442977905273</v>
+        <v>33.794429779052727</v>
       </c>
       <c r="I326" t="s">
         <v>1122</v>
@@ -16179,7 +16208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>5058</v>
       </c>
@@ -16202,7 +16231,7 @@
         <v>119.7919540405273</v>
       </c>
       <c r="H327">
-        <v>33.5032844543457</v>
+        <v>33.503284454345703</v>
       </c>
       <c r="I327" t="s">
         <v>1122</v>
@@ -16217,7 +16246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>534</v>
       </c>
@@ -16240,7 +16269,7 @@
         <v>120.19000244</v>
       </c>
       <c r="H328">
-        <v>33.31100082</v>
+        <v>33.311000819999997</v>
       </c>
       <c r="I328" t="s">
         <v>1122</v>
@@ -16255,7 +16284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>659</v>
       </c>
@@ -16293,7 +16322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>5904</v>
       </c>
@@ -16316,7 +16345,7 @@
         <v>121.587503</v>
       </c>
       <c r="H330">
-        <v>38.928203</v>
+        <v>38.928203000000003</v>
       </c>
       <c r="I330" t="s">
         <v>1123</v>
@@ -16331,7 +16360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>5342</v>
       </c>
@@ -16354,7 +16383,7 @@
         <v>121.5133361816406</v>
       </c>
       <c r="H331">
-        <v>38.85250091552734</v>
+        <v>38.852500915527337</v>
       </c>
       <c r="I331" t="s">
         <v>1123</v>
@@ -16369,7 +16398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>1944</v>
       </c>
@@ -16407,7 +16436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>1112</v>
       </c>
@@ -16427,10 +16456,10 @@
         <v>1008</v>
       </c>
       <c r="G333">
-        <v>120.2419662475586</v>
+        <v>120.24196624755859</v>
       </c>
       <c r="H333">
-        <v>36.04460144042969</v>
+        <v>36.044601440429687</v>
       </c>
       <c r="I333" t="s">
         <v>1124</v>
@@ -16445,7 +16474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>1152</v>
       </c>
@@ -16468,7 +16497,7 @@
         <v>120.2644577026367</v>
       </c>
       <c r="H334">
-        <v>36.06574249267578</v>
+        <v>36.065742492675781</v>
       </c>
       <c r="I334" t="s">
         <v>1124</v>
@@ -16483,7 +16512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>4328</v>
       </c>
@@ -16506,7 +16535,7 @@
         <v>120.36231232</v>
       </c>
       <c r="H335">
-        <v>36.04886627</v>
+        <v>36.048866269999998</v>
       </c>
       <c r="I335" t="s">
         <v>1124</v>
@@ -16521,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>4781</v>
       </c>
@@ -16544,7 +16573,7 @@
         <v>120.4282150268555</v>
       </c>
       <c r="H336">
-        <v>36.06082534790039</v>
+        <v>36.060825347900391</v>
       </c>
       <c r="I336" t="s">
         <v>1124</v>
@@ -16559,7 +16588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>1016</v>
       </c>
@@ -16579,10 +16608,10 @@
         <v>1012</v>
       </c>
       <c r="G337">
-        <v>120.3497161865234</v>
+        <v>120.34971618652339</v>
       </c>
       <c r="H337">
-        <v>36.13150024414063</v>
+        <v>36.131500244140632</v>
       </c>
       <c r="I337" t="s">
         <v>1124</v>
@@ -16597,7 +16626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>1422</v>
       </c>
@@ -16620,7 +16649,7 @@
         <v>120.4322052</v>
       </c>
       <c r="H338">
-        <v>36.14362717</v>
+        <v>36.143627170000002</v>
       </c>
       <c r="I338" t="s">
         <v>1124</v>
@@ -16635,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>3797</v>
       </c>
@@ -16658,7 +16687,7 @@
         <v>120.39961243</v>
       </c>
       <c r="H339">
-        <v>36.11067581</v>
+        <v>36.110675809999996</v>
       </c>
       <c r="I339" t="s">
         <v>1124</v>
@@ -16673,7 +16702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>4081</v>
       </c>
@@ -16696,7 +16725,7 @@
         <v>120.39917755</v>
       </c>
       <c r="H340">
-        <v>36.09380722</v>
+        <v>36.093807220000002</v>
       </c>
       <c r="I340" t="s">
         <v>1124</v>
@@ -16711,7 +16740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>4104</v>
       </c>
@@ -16734,7 +16763,7 @@
         <v>120.3615799</v>
       </c>
       <c r="H341">
-        <v>36.1055069</v>
+        <v>36.105506900000002</v>
       </c>
       <c r="I341" t="s">
         <v>1124</v>
@@ -16749,7 +16778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>4575</v>
       </c>
@@ -16772,7 +16801,7 @@
         <v>120.36077118</v>
       </c>
       <c r="H342">
-        <v>36.15570068</v>
+        <v>36.155700680000002</v>
       </c>
       <c r="I342" t="s">
         <v>1124</v>
@@ -16787,7 +16816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>5685</v>
       </c>
@@ -16810,7 +16839,7 @@
         <v>120.38970947</v>
       </c>
       <c r="H343">
-        <v>36.09664917</v>
+        <v>36.096649169999999</v>
       </c>
       <c r="I343" t="s">
         <v>1124</v>
@@ -16825,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>853</v>
       </c>
@@ -16848,7 +16877,7 @@
         <v>120.4991989135742</v>
       </c>
       <c r="H344">
-        <v>39.30971908569336</v>
+        <v>39.309719085693359</v>
       </c>
       <c r="I344" t="s">
         <v>1124</v>
@@ -16863,7 +16892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>3163</v>
       </c>
@@ -16886,7 +16915,7 @@
         <v>120.326774597168</v>
       </c>
       <c r="H345">
-        <v>36.31876754760742</v>
+        <v>36.318767547607422</v>
       </c>
       <c r="I345" t="s">
         <v>1124</v>
@@ -16901,7 +16930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>4918</v>
       </c>
@@ -16924,7 +16953,7 @@
         <v>120.38182831</v>
       </c>
       <c r="H346">
-        <v>36.29669571</v>
+        <v>36.296695710000002</v>
       </c>
       <c r="I346" t="s">
         <v>1124</v>
@@ -16939,7 +16968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>1487</v>
       </c>
@@ -16962,7 +16991,7 @@
         <v>120.4233017</v>
       </c>
       <c r="H347">
-        <v>36.15739059</v>
+        <v>36.157390589999999</v>
       </c>
       <c r="I347" t="s">
         <v>1124</v>
@@ -16977,7 +17006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>3792</v>
       </c>
@@ -17000,7 +17029,7 @@
         <v>120.43297577</v>
       </c>
       <c r="H348">
-        <v>36.17038345</v>
+        <v>36.170383450000003</v>
       </c>
       <c r="I348" t="s">
         <v>1124</v>
@@ -17015,7 +17044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>4464</v>
       </c>
@@ -17038,7 +17067,7 @@
         <v>120.46123505</v>
       </c>
       <c r="H349">
-        <v>36.10000229</v>
+        <v>36.100002289999999</v>
       </c>
       <c r="I349" t="s">
         <v>1124</v>
@@ -17053,7 +17082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>4559</v>
       </c>
@@ -17076,7 +17105,7 @@
         <v>120.45265961</v>
       </c>
       <c r="H350">
-        <v>36.10766983</v>
+        <v>36.107669829999999</v>
       </c>
       <c r="I350" t="s">
         <v>1124</v>
@@ -17091,7 +17120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>5258</v>
       </c>
@@ -17114,7 +17143,7 @@
         <v>120.43595886</v>
       </c>
       <c r="H351">
-        <v>36.11461258</v>
+        <v>36.114612579999999</v>
       </c>
       <c r="I351" t="s">
         <v>1124</v>
@@ -17129,7 +17158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>1030</v>
       </c>
@@ -17152,7 +17181,7 @@
         <v>121.4658966064453</v>
       </c>
       <c r="H352">
-        <v>31.21910095214844</v>
+        <v>31.219100952148441</v>
       </c>
       <c r="I352" t="s">
         <v>1125</v>
@@ -17167,7 +17196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>4734</v>
       </c>
@@ -17187,7 +17216,7 @@
         <v>1028</v>
       </c>
       <c r="G353">
-        <v>121.4765853881836</v>
+        <v>121.47658538818359</v>
       </c>
       <c r="H353">
         <v>31.23328971862793</v>
@@ -17205,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>1206</v>
       </c>
@@ -17228,7 +17257,7 @@
         <v>121.4164962768555</v>
       </c>
       <c r="H354">
-        <v>31.17519950866699</v>
+        <v>31.175199508666989</v>
       </c>
       <c r="I354" t="s">
         <v>1125</v>
@@ -17243,7 +17272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>1535</v>
       </c>
@@ -17281,7 +17310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>3746</v>
       </c>
@@ -17301,10 +17330,10 @@
         <v>1031</v>
       </c>
       <c r="G356">
-        <v>121.4229965209961</v>
+        <v>121.42299652099609</v>
       </c>
       <c r="H356">
-        <v>31.17926979064941</v>
+        <v>31.179269790649411</v>
       </c>
       <c r="I356" t="s">
         <v>1125</v>
@@ -17319,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>1033</v>
       </c>
@@ -17342,7 +17371,7 @@
         <v>121.4252014160156</v>
       </c>
       <c r="H357">
-        <v>31.13459968566895</v>
+        <v>31.134599685668949</v>
       </c>
       <c r="I357" t="s">
         <v>1125</v>
@@ -17357,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>1049</v>
       </c>
@@ -17380,7 +17409,7 @@
         <v>121.4415969848633</v>
       </c>
       <c r="H358">
-        <v>31.19039916992188</v>
+        <v>31.190399169921879</v>
       </c>
       <c r="I358" t="s">
         <v>1125</v>
@@ -17395,7 +17424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>1509</v>
       </c>
@@ -17415,10 +17444,10 @@
         <v>1034</v>
       </c>
       <c r="G359">
-        <v>121.4576263427734</v>
+        <v>121.45762634277339</v>
       </c>
       <c r="H359">
-        <v>31.19124984741211</v>
+        <v>31.191249847412109</v>
       </c>
       <c r="I359" t="s">
         <v>1125</v>
@@ -17433,7 +17462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>4300</v>
       </c>
@@ -17453,7 +17482,7 @@
         <v>1035</v>
       </c>
       <c r="G360">
-        <v>121.4279174804688</v>
+        <v>121.42791748046881</v>
       </c>
       <c r="H360">
         <v>31.18580627441407</v>
@@ -17471,7 +17500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>1516</v>
       </c>
@@ -17494,7 +17523,7 @@
         <v>121.163200378418</v>
       </c>
       <c r="H361">
-        <v>31.30508041381836</v>
+        <v>31.305080413818359</v>
       </c>
       <c r="I361" t="s">
         <v>1125</v>
@@ -17509,7 +17538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>3203</v>
       </c>
@@ -17532,7 +17561,7 @@
         <v>121.4496612548828</v>
       </c>
       <c r="H362">
-        <v>31.22350311279297</v>
+        <v>31.223503112792969</v>
       </c>
       <c r="I362" t="s">
         <v>1125</v>
@@ -17547,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>509</v>
       </c>
@@ -17567,10 +17596,10 @@
         <v>1038</v>
       </c>
       <c r="G363">
-        <v>31.27899932861328</v>
+        <v>31.278999328613281</v>
       </c>
       <c r="H363">
-        <v>121.4609985351562</v>
+        <v>121.46099853515619</v>
       </c>
       <c r="I363" t="s">
         <v>1125</v>
@@ -17585,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>1367</v>
       </c>
@@ -17605,7 +17634,7 @@
         <v>1039</v>
       </c>
       <c r="G364">
-        <v>121.4725952148438</v>
+        <v>121.47259521484381</v>
       </c>
       <c r="H364">
         <v>31.24301910400391</v>
@@ -17623,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>1966</v>
       </c>
@@ -17643,10 +17672,10 @@
         <v>1040</v>
       </c>
       <c r="G365">
-        <v>121.4434967041016</v>
+        <v>121.44349670410161</v>
       </c>
       <c r="H365">
-        <v>31.28186988830566</v>
+        <v>31.281869888305661</v>
       </c>
       <c r="I365" t="s">
         <v>1125</v>
@@ -17661,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>1993</v>
       </c>
@@ -17699,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>2021</v>
       </c>
@@ -17722,7 +17751,7 @@
         <v>121.4068984985352</v>
       </c>
       <c r="H367">
-        <v>31.31654739379883</v>
+        <v>31.316547393798832</v>
       </c>
       <c r="I367" t="s">
         <v>1125</v>
@@ -17737,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>4724</v>
       </c>
@@ -17757,10 +17786,10 @@
         <v>1043</v>
       </c>
       <c r="G368">
-        <v>121.4800033569336</v>
+        <v>121.48000335693359</v>
       </c>
       <c r="H368">
-        <v>31.31999969482422</v>
+        <v>31.319999694824219</v>
       </c>
       <c r="I368" t="s">
         <v>1125</v>
@@ -17775,7 +17804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>1220</v>
       </c>
@@ -17798,7 +17827,7 @@
         <v>121.4410018920898</v>
       </c>
       <c r="H369">
-        <v>31.0310001373291</v>
+        <v>31.031000137329102</v>
       </c>
       <c r="I369" t="s">
         <v>1125</v>
@@ -17813,7 +17842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>1230</v>
       </c>
@@ -17836,7 +17865,7 @@
         <v>121.44580078125</v>
       </c>
       <c r="H370">
-        <v>31.02652931213379</v>
+        <v>31.026529312133789</v>
       </c>
       <c r="I370" t="s">
         <v>1125</v>
@@ -17851,7 +17880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>1240</v>
       </c>
@@ -17871,7 +17900,7 @@
         <v>1046</v>
       </c>
       <c r="G371">
-        <v>121.4430999755859</v>
+        <v>121.44309997558589</v>
       </c>
       <c r="H371">
         <v>31.02610969543457</v>
@@ -17889,7 +17918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>786</v>
       </c>
@@ -17927,7 +17956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>799</v>
       </c>
@@ -17947,10 +17976,10 @@
         <v>1048</v>
       </c>
       <c r="G373">
-        <v>121.4443969726562</v>
+        <v>121.44439697265619</v>
       </c>
       <c r="H373">
-        <v>31.02593040466309</v>
+        <v>31.025930404663089</v>
       </c>
       <c r="I373" t="s">
         <v>1125</v>
@@ -17965,7 +17994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>1047</v>
       </c>
@@ -17985,10 +18014,10 @@
         <v>1049</v>
       </c>
       <c r="G374">
-        <v>121.4011001586914</v>
+        <v>121.40110015869141</v>
       </c>
       <c r="H374">
-        <v>31.0841007232666</v>
+        <v>31.084100723266602</v>
       </c>
       <c r="I374" t="s">
         <v>1125</v>
@@ -18003,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>1380</v>
       </c>
@@ -18041,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>1976</v>
       </c>
@@ -18064,7 +18093,7 @@
         <v>121.410400390625</v>
       </c>
       <c r="H376">
-        <v>31.14146995544434</v>
+        <v>31.141469955444339</v>
       </c>
       <c r="I376" t="s">
         <v>1125</v>
@@ -18079,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>3956</v>
       </c>
@@ -18099,7 +18128,7 @@
         <v>1052</v>
       </c>
       <c r="G377">
-        <v>121.3798980712891</v>
+        <v>121.37989807128911</v>
       </c>
       <c r="H377">
         <v>31.1776008605957</v>
@@ -18117,7 +18146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>4158</v>
       </c>
@@ -18140,7 +18169,7 @@
         <v>121.3813781738281</v>
       </c>
       <c r="H378">
-        <v>31.07049369812012</v>
+        <v>31.070493698120121</v>
       </c>
       <c r="I378" t="s">
         <v>1125</v>
@@ -18155,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>4844</v>
       </c>
@@ -18193,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>1028</v>
       </c>
@@ -18231,7 +18260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>1045</v>
       </c>
@@ -18251,10 +18280,10 @@
         <v>1056</v>
       </c>
       <c r="G381">
-        <v>121.4917984008789</v>
+        <v>121.49179840087891</v>
       </c>
       <c r="H381">
-        <v>31.34390068054199</v>
+        <v>31.343900680541989</v>
       </c>
       <c r="I381" t="s">
         <v>1125</v>
@@ -18269,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>1511</v>
       </c>
@@ -18289,10 +18318,10 @@
         <v>1057</v>
       </c>
       <c r="G382">
-        <v>121.3044586181641</v>
+        <v>121.30445861816411</v>
       </c>
       <c r="H382">
-        <v>31.24226570129395</v>
+        <v>31.242265701293949</v>
       </c>
       <c r="I382" t="s">
         <v>1125</v>
@@ -18307,7 +18336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>4215</v>
       </c>
@@ -18330,7 +18359,7 @@
         <v>121.2785110473633</v>
       </c>
       <c r="H383">
-        <v>31.26263236999512</v>
+        <v>31.262632369995121</v>
       </c>
       <c r="I383" t="s">
         <v>1125</v>
@@ -18345,7 +18374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>3694</v>
       </c>
@@ -18368,7 +18397,7 @@
         <v>121.163200378418</v>
       </c>
       <c r="H384">
-        <v>31.30508041381836</v>
+        <v>31.305080413818359</v>
       </c>
       <c r="I384" t="s">
         <v>1125</v>
@@ -18383,7 +18412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>3714</v>
       </c>
@@ -18406,7 +18435,7 @@
         <v>121.163200378418</v>
       </c>
       <c r="H385">
-        <v>31.30508041381836</v>
+        <v>31.305080413818359</v>
       </c>
       <c r="I385" t="s">
         <v>1125</v>
@@ -18421,7 +18450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>503</v>
       </c>
@@ -18459,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>668</v>
       </c>
@@ -18497,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>671</v>
       </c>
@@ -18517,10 +18546,10 @@
         <v>1063</v>
       </c>
       <c r="G388">
-        <v>121.6107025146484</v>
+        <v>121.61070251464839</v>
       </c>
       <c r="H388">
-        <v>31.20833015441895</v>
+        <v>31.208330154418949</v>
       </c>
       <c r="I388" t="s">
         <v>1125</v>
@@ -18535,7 +18564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>680</v>
       </c>
@@ -18573,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>1006</v>
       </c>
@@ -18596,7 +18625,7 @@
         <v>121.4744491577148</v>
       </c>
       <c r="H390">
-        <v>31.14706230163575</v>
+        <v>31.147062301635749</v>
       </c>
       <c r="I390" t="s">
         <v>1125</v>
@@ -18611,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>1025</v>
       </c>
@@ -18634,7 +18663,7 @@
         <v>121.706657409668</v>
       </c>
       <c r="H391">
-        <v>31.03660011291504</v>
+        <v>31.036600112915039</v>
       </c>
       <c r="I391" t="s">
         <v>1125</v>
@@ -18649,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>1026</v>
       </c>
@@ -18672,7 +18701,7 @@
         <v>121.4824981689453</v>
       </c>
       <c r="H392">
-        <v>31.16220092773437</v>
+        <v>31.162200927734371</v>
       </c>
       <c r="I392" t="s">
         <v>1125</v>
@@ -18687,7 +18716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>1037</v>
       </c>
@@ -18725,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>1051</v>
       </c>
@@ -18745,10 +18774,10 @@
         <v>1069</v>
       </c>
       <c r="G394">
-        <v>121.5868988037109</v>
+        <v>121.58689880371089</v>
       </c>
       <c r="H394">
-        <v>31.20490074157715</v>
+        <v>31.204900741577148</v>
       </c>
       <c r="I394" t="s">
         <v>1125</v>
@@ -18763,7 +18792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>1375</v>
       </c>
@@ -18786,7 +18815,7 @@
         <v>121.5626983642578</v>
       </c>
       <c r="H395">
-        <v>31.20557022094727</v>
+        <v>31.205570220947269</v>
       </c>
       <c r="I395" t="s">
         <v>1125</v>
@@ -18801,7 +18830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>1395</v>
       </c>
@@ -18821,7 +18850,7 @@
         <v>1071</v>
       </c>
       <c r="G396">
-        <v>121.5214691162109</v>
+        <v>121.52146911621089</v>
       </c>
       <c r="H396">
         <v>31.20726013183593</v>
@@ -18839,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>1497</v>
       </c>
@@ -18859,10 +18888,10 @@
         <v>1072</v>
       </c>
       <c r="G397">
-        <v>121.3044586181641</v>
+        <v>121.30445861816411</v>
       </c>
       <c r="H397">
-        <v>31.24226570129395</v>
+        <v>31.242265701293949</v>
       </c>
       <c r="I397" t="s">
         <v>1125</v>
@@ -18877,7 +18906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>4840</v>
       </c>
@@ -18900,7 +18929,7 @@
         <v>121.5623016357422</v>
       </c>
       <c r="H398">
-        <v>31.21220016479492</v>
+        <v>31.212200164794918</v>
       </c>
       <c r="I398" t="s">
         <v>1125</v>
@@ -18915,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>826</v>
       </c>
@@ -18938,7 +18967,7 @@
         <v>121.3197326660156</v>
       </c>
       <c r="H399">
-        <v>31.09029769897461</v>
+        <v>31.090297698974609</v>
       </c>
       <c r="I399" t="s">
         <v>1125</v>
@@ -18953,7 +18982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>1039</v>
       </c>
@@ -18973,10 +19002,10 @@
         <v>1075</v>
       </c>
       <c r="G400">
-        <v>121.2527008056641</v>
+        <v>121.25270080566411</v>
       </c>
       <c r="H400">
-        <v>31.03560066223145</v>
+        <v>31.035600662231449</v>
       </c>
       <c r="I400" t="s">
         <v>1125</v>
@@ -18991,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>1053</v>
       </c>
@@ -19011,10 +19040,10 @@
         <v>1076</v>
       </c>
       <c r="G401">
-        <v>121.1791000366211</v>
+        <v>121.17910003662109</v>
       </c>
       <c r="H401">
-        <v>31.15270042419434</v>
+        <v>31.152700424194339</v>
       </c>
       <c r="I401" t="s">
         <v>1125</v>
@@ -19029,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>3802</v>
       </c>
@@ -19052,7 +19081,7 @@
         <v>108.9657440185547</v>
       </c>
       <c r="H402">
-        <v>34.24231719970703</v>
+        <v>34.242317199707031</v>
       </c>
       <c r="I402" t="s">
         <v>1126</v>
@@ -19067,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>3808</v>
       </c>
@@ -19090,7 +19119,7 @@
         <v>108.842399597168</v>
       </c>
       <c r="H403">
-        <v>34.23781967163086</v>
+        <v>34.237819671630859</v>
       </c>
       <c r="I403" t="s">
         <v>1126</v>
@@ -19105,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>5810</v>
       </c>
@@ -19128,7 +19157,7 @@
         <v>108.8738174438477</v>
       </c>
       <c r="H404">
-        <v>34.19410705566406</v>
+        <v>34.194107055664062</v>
       </c>
       <c r="I404" t="s">
         <v>1126</v>
@@ -19143,7 +19172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>1055</v>
       </c>
@@ -19166,7 +19195,7 @@
         <v>117.1977005004883</v>
       </c>
       <c r="H405">
-        <v>39.1261100769043</v>
+        <v>39.126110076904297</v>
       </c>
       <c r="I405" t="s">
         <v>1127</v>
@@ -19181,7 +19210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>4109</v>
       </c>
@@ -19204,7 +19233,7 @@
         <v>117.2442932128906</v>
       </c>
       <c r="H406">
-        <v>39.13181686401367</v>
+        <v>39.131816864013672</v>
       </c>
       <c r="I406" t="s">
         <v>1127</v>
@@ -19219,7 +19248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>690</v>
       </c>
@@ -19242,7 +19271,7 @@
         <v>117.1753005981445</v>
       </c>
       <c r="H407">
-        <v>39.10013961791992</v>
+        <v>39.100139617919922</v>
       </c>
       <c r="I407" t="s">
         <v>1127</v>
@@ -19257,7 +19286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>692</v>
       </c>
@@ -19277,10 +19306,10 @@
         <v>1083</v>
       </c>
       <c r="G408">
-        <v>117.1156997680664</v>
+        <v>117.11569976806641</v>
       </c>
       <c r="H408">
-        <v>39.09392166137695</v>
+        <v>39.093921661376953</v>
       </c>
       <c r="I408" t="s">
         <v>1127</v>
@@ -19295,7 +19324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>1987</v>
       </c>
@@ -19318,7 +19347,7 @@
         <v>117.1506729125977</v>
       </c>
       <c r="H409">
-        <v>39.1382064819336</v>
+        <v>39.138206481933601</v>
       </c>
       <c r="I409" t="s">
         <v>1127</v>
@@ -19333,7 +19362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>407</v>
       </c>
@@ -19371,7 +19400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>3566</v>
       </c>
@@ -19394,7 +19423,7 @@
         <v>113.8679962158203</v>
       </c>
       <c r="H411">
-        <v>22.55699920654297</v>
+        <v>22.556999206542969</v>
       </c>
       <c r="I411" t="s">
         <v>1120</v>
@@ -19409,7 +19438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>3507</v>
       </c>
@@ -19429,10 +19458,10 @@
         <v>1087</v>
       </c>
       <c r="G412">
-        <v>114.3359985351562</v>
+        <v>114.33599853515619</v>
       </c>
       <c r="H412">
-        <v>22.68899917602539</v>
+        <v>22.688999176025391</v>
       </c>
       <c r="I412" t="s">
         <v>1120</v>
@@ -19447,7 +19476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>113</v>
       </c>
@@ -19467,10 +19496,10 @@
         <v>1088</v>
       </c>
       <c r="G413">
-        <v>114.0233001708984</v>
+        <v>114.02330017089839</v>
       </c>
       <c r="H413">
-        <v>22.54249954223633</v>
+        <v>22.542499542236332</v>
       </c>
       <c r="I413" t="s">
         <v>1120</v>
@@ -19485,7 +19514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>340</v>
       </c>
@@ -19508,7 +19537,7 @@
         <v>113.9970016479492</v>
       </c>
       <c r="H414">
-        <v>22.54700088500977</v>
+        <v>22.547000885009769</v>
       </c>
       <c r="I414" t="s">
         <v>1120</v>
@@ -19523,7 +19552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>179</v>
       </c>
@@ -19543,7 +19572,7 @@
         <v>1090</v>
       </c>
       <c r="G415">
-        <v>114.0739974975586</v>
+        <v>114.07399749755859</v>
       </c>
       <c r="H415">
         <v>22.55999946594239</v>
@@ -19561,7 +19590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>204</v>
       </c>
@@ -19599,7 +19628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>3426</v>
       </c>
@@ -19637,7 +19666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>396</v>
       </c>
@@ -19660,7 +19689,7 @@
         <v>114.1009979248047</v>
       </c>
       <c r="H418">
-        <v>22.58099937438965</v>
+        <v>22.580999374389648</v>
       </c>
       <c r="I418" t="s">
         <v>1120</v>
@@ -19675,7 +19704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>193</v>
       </c>
@@ -19698,7 +19727,7 @@
         <v>114.1839981079102</v>
       </c>
       <c r="H419">
-        <v>22.55699920654297</v>
+        <v>22.556999206542969</v>
       </c>
       <c r="I419" t="s">
         <v>1120</v>
@@ -19713,7 +19742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>200</v>
       </c>
@@ -19751,7 +19780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>302</v>
       </c>
@@ -19789,7 +19818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>106</v>
       </c>
@@ -19827,7 +19856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>172</v>
       </c>
@@ -19850,7 +19879,7 @@
         <v>113.9309997558594</v>
       </c>
       <c r="H423">
-        <v>22.54700088500977</v>
+        <v>22.547000885009769</v>
       </c>
       <c r="I423" t="s">
         <v>1120</v>
@@ -19865,7 +19894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>3722</v>
       </c>
@@ -19885,10 +19914,10 @@
         <v>1099</v>
       </c>
       <c r="G424">
-        <v>113.9629974365234</v>
+        <v>113.96299743652339</v>
       </c>
       <c r="H424">
-        <v>22.53899955749512</v>
+        <v>22.538999557495121</v>
       </c>
       <c r="I424" t="s">
         <v>1120</v>
@@ -19903,7 +19932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>3375</v>
       </c>
@@ -19941,7 +19970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>244</v>
       </c>
@@ -19964,7 +19993,7 @@
         <v>113.9290008544922</v>
       </c>
       <c r="H426">
-        <v>22.50799942016602</v>
+        <v>22.507999420166019</v>
       </c>
       <c r="I426" t="s">
         <v>1120</v>
@@ -19979,7 +20008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>286</v>
       </c>
@@ -20002,7 +20031,7 @@
         <v>113.8840026855469</v>
       </c>
       <c r="H427">
-        <v>22.47999954223633</v>
+        <v>22.479999542236332</v>
       </c>
       <c r="I427" t="s">
         <v>1120</v>
@@ -20017,7 +20046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>3460</v>
       </c>
@@ -20055,7 +20084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>1573</v>
       </c>
@@ -20078,7 +20107,7 @@
         <v>113.9085998535156</v>
       </c>
       <c r="H429">
-        <v>22.54582977294922</v>
+        <v>22.545829772949219</v>
       </c>
       <c r="I429" t="s">
         <v>1120</v>
@@ -20093,7 +20122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>229</v>
       </c>
@@ -20113,7 +20142,7 @@
         <v>1105</v>
       </c>
       <c r="G430">
-        <v>113.8170013427734</v>
+        <v>113.81700134277339</v>
       </c>
       <c r="H430">
         <v>22.64999961853027</v>
@@ -20131,7 +20160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>315</v>
       </c>
@@ -20154,7 +20183,7 @@
         <v>114.0759963989258</v>
       </c>
       <c r="H431">
-        <v>22.72699928283691</v>
+        <v>22.726999282836911</v>
       </c>
       <c r="I431" t="s">
         <v>1120</v>
@@ -20169,7 +20198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>332</v>
       </c>
@@ -20192,7 +20221,7 @@
         <v>114.0299987792969</v>
       </c>
       <c r="H432">
-        <v>22.66399955749512</v>
+        <v>22.663999557495121</v>
       </c>
       <c r="I432" t="s">
         <v>1120</v>
@@ -20207,7 +20236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>3436</v>
       </c>
@@ -20227,10 +20256,10 @@
         <v>1108</v>
       </c>
       <c r="G433">
-        <v>113.8582992553711</v>
+        <v>113.85829925537109</v>
       </c>
       <c r="H433">
-        <v>22.5794506072998</v>
+        <v>22.579450607299801</v>
       </c>
       <c r="I433" t="s">
         <v>1120</v>
@@ -20245,7 +20274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>3447</v>
       </c>
@@ -20268,7 +20297,7 @@
         <v>113.8380966186523</v>
       </c>
       <c r="H434">
-        <v>22.60960006713867</v>
+        <v>22.609600067138668</v>
       </c>
       <c r="I434" t="s">
         <v>1120</v>
@@ -20283,7 +20312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>3453</v>
       </c>
@@ -20306,7 +20335,7 @@
         <v>114.0050964355469</v>
       </c>
       <c r="H435">
-        <v>22.63483047485352</v>
+        <v>22.634830474853519</v>
       </c>
       <c r="I435" t="s">
         <v>1120</v>
@@ -20321,7 +20350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>3526</v>
       </c>
@@ -20344,7 +20373,7 @@
         <v>113.915657043457</v>
       </c>
       <c r="H436">
-        <v>22.58023071289062</v>
+        <v>22.580230712890621</v>
       </c>
       <c r="I436" t="s">
         <v>1120</v>
@@ -20359,7 +20388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>264</v>
       </c>
@@ -20382,7 +20411,7 @@
         <v>114.2099990844727</v>
       </c>
       <c r="H437">
-        <v>22.6919994354248</v>
+        <v>22.691999435424801</v>
       </c>
       <c r="I437" t="s">
         <v>1120</v>
@@ -20397,7 +20426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>3397</v>
       </c>
@@ -20435,7 +20464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>3486</v>
       </c>
@@ -20455,10 +20484,10 @@
         <v>1114</v>
       </c>
       <c r="G439">
-        <v>114.3676986694336</v>
+        <v>114.36769866943359</v>
       </c>
       <c r="H439">
-        <v>22.75898933410645</v>
+        <v>22.758989334106449</v>
       </c>
       <c r="I439" t="s">
         <v>1120</v>
@@ -20473,7 +20502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>3533</v>
       </c>
@@ -20512,6 +20541,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>